--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,210 +441,195 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
@@ -660,127 +645,118 @@
         <v>25.27272727272727</v>
       </c>
       <c r="C2" t="n">
-        <v>25.27272727272727</v>
+        <v>3.96969696969697</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96969696969697</v>
+        <v>21.3030303030303</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3030303030303</v>
+        <v>55.3385989010989</v>
       </c>
       <c r="F2" t="n">
-        <v>732.4612121212122</v>
+        <v>54.81955808837628</v>
       </c>
       <c r="G2" t="n">
-        <v>726.5618181818182</v>
+        <v>22.51515151515152</v>
       </c>
       <c r="H2" t="n">
-        <v>22.51515151515152</v>
+        <v>19.39393939393939</v>
       </c>
       <c r="I2" t="n">
-        <v>19.39393939393939</v>
+        <v>1.878787878787879</v>
       </c>
       <c r="J2" t="n">
-        <v>1.878787878787879</v>
+        <v>1.03030303030303</v>
       </c>
       <c r="K2" t="n">
-        <v>1.03030303030303</v>
+        <v>6.938710077800987</v>
       </c>
       <c r="L2" t="n">
-        <v>93.43424242424243</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>3.333333333333333</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="N2" t="n">
-        <v>1.818181818181818</v>
+        <v>11.65372506281597</v>
       </c>
       <c r="O2" t="n">
-        <v>156.0606060606061</v>
+        <v>103.8787878787879</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8787878787879</v>
+        <v>20.45454545454545</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.8787878787879</v>
+        <v>83.42424242424242</v>
       </c>
       <c r="R2" t="n">
-        <v>20.45454545454545</v>
+        <v>75.15010799806254</v>
       </c>
       <c r="S2" t="n">
-        <v>83.42424242424242</v>
+        <v>75.67871258539441</v>
       </c>
       <c r="T2" t="n">
-        <v>997.2430303030302</v>
+        <v>89.96969696969697</v>
       </c>
       <c r="U2" t="n">
-        <v>1004.427272727273</v>
+        <v>74.45454545454545</v>
       </c>
       <c r="V2" t="n">
-        <v>89.96969696969697</v>
+        <v>7.393939393939394</v>
       </c>
       <c r="W2" t="n">
-        <v>74.45454545454545</v>
+        <v>3.727272727272727</v>
       </c>
       <c r="X2" t="n">
-        <v>7.393939393939394</v>
+        <v>19.94717571317571</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.727272727272727</v>
+        <v>17.45454545454545</v>
       </c>
       <c r="Z2" t="n">
-        <v>264.1918181818182</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.45454545454545</v>
+        <v>30.8989662256935</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.636363636363637</v>
+        <v>128.969696969697</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.1</v>
+        <v>32.06060606060606</v>
       </c>
       <c r="AD2" t="n">
-        <v>128.969696969697</v>
+        <v>96.90909090909091</v>
       </c>
       <c r="AE2" t="n">
-        <v>128.969696969697</v>
+        <v>71.54164460287188</v>
       </c>
       <c r="AF2" t="n">
-        <v>32.06060606060606</v>
+        <v>74.28475428611793</v>
       </c>
       <c r="AG2" t="n">
-        <v>96.90909090909091</v>
+        <v>90.36363636363636</v>
       </c>
       <c r="AH2" t="n">
-        <v>946.8427272727273</v>
+        <v>72.87878787878788</v>
       </c>
       <c r="AI2" t="n">
-        <v>982.2384848484849</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90.36363636363636</v>
+        <v>5.272727272727272</v>
       </c>
       <c r="AK2" t="n">
-        <v>72.87878787878788</v>
+        <v>26.41538661338661</v>
       </c>
       <c r="AL2" t="n">
-        <v>9.333333333333334</v>
+        <v>18.87878787878788</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.272727272727272</v>
+        <v>9.575757575757576</v>
       </c>
       <c r="AN2" t="n">
-        <v>348.8384848484848</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>18.87878787878788</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>9.575757575757576</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>430.8730303030303</v>
+        <v>32.72941990837445</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +769,118 @@
         <v>14.36842105263158</v>
       </c>
       <c r="C3" t="n">
-        <v>14.36842105263158</v>
+        <v>3.210526315789474</v>
       </c>
       <c r="D3" t="n">
-        <v>3.210526315789474</v>
+        <v>11.1578947368421</v>
       </c>
       <c r="E3" t="n">
-        <v>11.1578947368421</v>
+        <v>43.86007511348301</v>
       </c>
       <c r="F3" t="n">
-        <v>552.8044736842105</v>
+        <v>41.59817451408241</v>
       </c>
       <c r="G3" t="n">
-        <v>523.6849999999999</v>
+        <v>12.1578947368421</v>
       </c>
       <c r="H3" t="n">
-        <v>12.1578947368421</v>
+        <v>9.789473684210526</v>
       </c>
       <c r="I3" t="n">
-        <v>9.789473684210526</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6052631578947368</v>
+        <v>4.667802957276642</v>
       </c>
       <c r="L3" t="n">
-        <v>57.89473684210526</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="M3" t="n">
-        <v>2.473684210526316</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="N3" t="n">
-        <v>1.421052631578947</v>
+        <v>9.290072924151872</v>
       </c>
       <c r="O3" t="n">
-        <v>114.9123684210526</v>
+        <v>77.57894736842105</v>
       </c>
       <c r="P3" t="n">
-        <v>77.57894736842105</v>
+        <v>20.42105263157895</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.57894736842105</v>
+        <v>57.1578947368421</v>
       </c>
       <c r="R3" t="n">
-        <v>20.42105263157895</v>
+        <v>66.28872255960414</v>
       </c>
       <c r="S3" t="n">
-        <v>57.1578947368421</v>
+        <v>63.94776721816196</v>
       </c>
       <c r="T3" t="n">
-        <v>831.9386842105264</v>
+        <v>62.39473684210526</v>
       </c>
       <c r="U3" t="n">
-        <v>802.9268421052632</v>
+        <v>47.18421052631579</v>
       </c>
       <c r="V3" t="n">
-        <v>62.39473684210526</v>
+        <v>5.947368421052632</v>
       </c>
       <c r="W3" t="n">
-        <v>47.18421052631579</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="X3" t="n">
-        <v>5.947368421052632</v>
+        <v>17.32161881247408</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.815789473684211</v>
+        <v>17.76315789473684</v>
       </c>
       <c r="Z3" t="n">
-        <v>216.0086842105263</v>
+        <v>8.289473684210526</v>
       </c>
       <c r="AA3" t="n">
-        <v>17.76315789473684</v>
+        <v>31.33260773144983</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.289473684210526</v>
+        <v>99.76315789473684</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.2226315789474</v>
+        <v>29.65789473684211</v>
       </c>
       <c r="AD3" t="n">
-        <v>99.76315789473684</v>
+        <v>70.10526315789474</v>
       </c>
       <c r="AE3" t="n">
-        <v>99.76315789473684</v>
+        <v>65.84081477878846</v>
       </c>
       <c r="AF3" t="n">
-        <v>29.65789473684211</v>
+        <v>66.29435119850909</v>
       </c>
       <c r="AG3" t="n">
-        <v>70.10526315789474</v>
+        <v>67.07894736842105</v>
       </c>
       <c r="AH3" t="n">
-        <v>827.5055263157894</v>
+        <v>50.42105263157895</v>
       </c>
       <c r="AI3" t="n">
-        <v>833.1176315789475</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67.07894736842105</v>
+        <v>3.684210526315789</v>
       </c>
       <c r="AK3" t="n">
-        <v>50.42105263157895</v>
+        <v>20.25654491707123</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.842105263157895</v>
+        <v>18.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.684210526315789</v>
+        <v>8.842105263157896</v>
       </c>
       <c r="AN3" t="n">
-        <v>254.5613157894737</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>8.842105263157896</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>405.4794736842105</v>
+        <v>32.28406921295079</v>
       </c>
     </row>
     <row r="4">
@@ -926,127 +893,118 @@
         <v>23.78947368421053</v>
       </c>
       <c r="C4" t="n">
-        <v>23.78947368421053</v>
+        <v>4.473684210526316</v>
       </c>
       <c r="D4" t="n">
-        <v>4.473684210526316</v>
+        <v>19.31578947368421</v>
       </c>
       <c r="E4" t="n">
-        <v>19.31578947368421</v>
+        <v>55.3640909090909</v>
       </c>
       <c r="F4" t="n">
-        <v>688.8518421052631</v>
+        <v>52.28281735808051</v>
       </c>
       <c r="G4" t="n">
-        <v>654.2278947368421</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>17.34210526315789</v>
       </c>
       <c r="I4" t="n">
-        <v>17.34210526315789</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="J4" t="n">
-        <v>2.526315789473684</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.5</v>
+        <v>10.20832237937501</v>
       </c>
       <c r="L4" t="n">
-        <v>130.2631578947368</v>
+        <v>3.973684210526316</v>
       </c>
       <c r="M4" t="n">
-        <v>3.973684210526316</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052631578947369</v>
+        <v>12.51111778572305</v>
       </c>
       <c r="O4" t="n">
-        <v>157.2368421052632</v>
+        <v>102.2894736842105</v>
       </c>
       <c r="P4" t="n">
-        <v>102.2894736842105</v>
+        <v>20.73684210526316</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.2894736842105</v>
+        <v>81.55263157894737</v>
       </c>
       <c r="R4" t="n">
-        <v>20.73684210526316</v>
+        <v>73.80551642436511</v>
       </c>
       <c r="S4" t="n">
-        <v>81.55263157894737</v>
+        <v>74.12337056583766</v>
       </c>
       <c r="T4" t="n">
-        <v>923.2805263157895</v>
+        <v>88.63157894736842</v>
       </c>
       <c r="U4" t="n">
-        <v>925.7842105263159</v>
+        <v>71.94736842105263</v>
       </c>
       <c r="V4" t="n">
-        <v>88.63157894736842</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="W4" t="n">
-        <v>71.94736842105263</v>
+        <v>3.447368421052631</v>
       </c>
       <c r="X4" t="n">
-        <v>6.842105263157895</v>
+        <v>18.96713292190266</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.447368421052631</v>
+        <v>16.65789473684211</v>
       </c>
       <c r="Z4" t="n">
-        <v>239.6928947368421</v>
+        <v>7.736842105263158</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.65789473684211</v>
+        <v>30.65049636766742</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.736842105263158</v>
+        <v>123.9210526315789</v>
       </c>
       <c r="AC4" t="n">
-        <v>382.7755263157895</v>
+        <v>29.47368421052632</v>
       </c>
       <c r="AD4" t="n">
-        <v>123.9210526315789</v>
+        <v>94.44736842105263</v>
       </c>
       <c r="AE4" t="n">
-        <v>123.9210526315789</v>
+        <v>71.99704350474087</v>
       </c>
       <c r="AF4" t="n">
-        <v>29.47368421052632</v>
+        <v>74.6471673940095</v>
       </c>
       <c r="AG4" t="n">
-        <v>94.44736842105263</v>
+        <v>90.44736842105263</v>
       </c>
       <c r="AH4" t="n">
-        <v>900.4426315789474</v>
+        <v>72.81578947368421</v>
       </c>
       <c r="AI4" t="n">
-        <v>934.5571052631578</v>
+        <v>9.289473684210526</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90.44736842105263</v>
+        <v>5.605263157894737</v>
       </c>
       <c r="AK4" t="n">
-        <v>72.81578947368421</v>
+        <v>25.79021921061395</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.289473684210526</v>
+        <v>18.26315789473684</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.605263157894737</v>
+        <v>9.184210526315789</v>
       </c>
       <c r="AN4" t="n">
-        <v>324.1668421052632</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>18.26315789473684</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>9.184210526315789</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>395.7557894736842</v>
+        <v>31.51925090260617</v>
       </c>
     </row>
     <row r="5">
@@ -1059,127 +1017,118 @@
         <v>17.86111111111111</v>
       </c>
       <c r="C5" t="n">
-        <v>17.86111111111111</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>3.583333333333333</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>14.27777777777778</v>
+        <v>50.81515723474057</v>
       </c>
       <c r="F5" t="n">
-        <v>689.6263888888889</v>
+        <v>46.91299032140699</v>
       </c>
       <c r="G5" t="n">
-        <v>637.7611111111112</v>
+        <v>15.36111111111111</v>
       </c>
       <c r="H5" t="n">
-        <v>15.36111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="K5" t="n">
-        <v>1.055555555555556</v>
+        <v>6.963769841269841</v>
       </c>
       <c r="L5" t="n">
-        <v>95.37027777777777</v>
+        <v>3.027777777777778</v>
       </c>
       <c r="M5" t="n">
-        <v>3.027777777777778</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>1.666666666666667</v>
+        <v>10.10550347800348</v>
       </c>
       <c r="O5" t="n">
-        <v>137.9630555555556</v>
+        <v>94.69444444444444</v>
       </c>
       <c r="P5" t="n">
-        <v>94.69444444444444</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.69444444444444</v>
+        <v>76.02777777777777</v>
       </c>
       <c r="R5" t="n">
-        <v>18.66666666666667</v>
+        <v>72.94231558873226</v>
       </c>
       <c r="S5" t="n">
-        <v>76.02777777777777</v>
+        <v>73.33917279633947</v>
       </c>
       <c r="T5" t="n">
-        <v>985.0338888888889</v>
+        <v>81.13888888888889</v>
       </c>
       <c r="U5" t="n">
-        <v>990.8330555555555</v>
+        <v>67.16666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>81.13888888888889</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="W5" t="n">
-        <v>67.16666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>6.444444444444445</v>
+        <v>17.10058189341522</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.25</v>
+        <v>15.80555555555556</v>
       </c>
       <c r="Z5" t="n">
-        <v>233.3336111111111</v>
+        <v>7.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.80555555555556</v>
+        <v>28.82262012062012</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.75</v>
+        <v>107.3333333333333</v>
       </c>
       <c r="AC5" t="n">
-        <v>391.2102777777778</v>
+        <v>28.36111111111111</v>
       </c>
       <c r="AD5" t="n">
-        <v>107.3333333333333</v>
+        <v>78.97222222222223</v>
       </c>
       <c r="AE5" t="n">
-        <v>107.3333333333333</v>
+        <v>69.97229553933721</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.36111111111111</v>
+        <v>72.97342592284259</v>
       </c>
       <c r="AG5" t="n">
-        <v>78.97222222222223</v>
+        <v>72.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>947.2791666666667</v>
+        <v>56.38888888888889</v>
       </c>
       <c r="AI5" t="n">
-        <v>987.9930555555555</v>
+        <v>7.194444444444445</v>
       </c>
       <c r="AJ5" t="n">
-        <v>72.11111111111111</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AK5" t="n">
-        <v>56.38888888888889</v>
+        <v>18.31218471343471</v>
       </c>
       <c r="AL5" t="n">
-        <v>7.194444444444445</v>
+        <v>15.47222222222222</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.888888888888889</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="AN5" t="n">
-        <v>246.7133333333333</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15.47222222222222</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>7.444444444444445</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>410.4163888888889</v>
+        <v>30.51103964708132</v>
       </c>
     </row>
     <row r="6">
@@ -1192,127 +1141,118 @@
         <v>18.38888888888889</v>
       </c>
       <c r="C6" t="n">
-        <v>18.38888888888889</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>14.88888888888889</v>
+        <v>49.37752060439561</v>
       </c>
       <c r="F6" t="n">
-        <v>662.2888888888889</v>
+        <v>46.31669922669923</v>
       </c>
       <c r="G6" t="n">
-        <v>621.2169444444445</v>
+        <v>15.5</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5</v>
+        <v>12.75</v>
       </c>
       <c r="I6" t="n">
-        <v>12.75</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="J6" t="n">
-        <v>1.277777777777778</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6388888888888888</v>
+        <v>4.298941798941799</v>
       </c>
       <c r="L6" t="n">
-        <v>58.33333333333334</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>2.166666666666667</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9444444444444444</v>
+        <v>5.585917175417176</v>
       </c>
       <c r="O6" t="n">
-        <v>75.46305555555556</v>
+        <v>93.91666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>93.91666666666667</v>
+        <v>19.52777777777778</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.91666666666667</v>
+        <v>74.38888888888889</v>
       </c>
       <c r="R6" t="n">
-        <v>19.52777777777778</v>
+        <v>68.32206262718763</v>
       </c>
       <c r="S6" t="n">
-        <v>74.38888888888889</v>
+        <v>67.48338827838828</v>
       </c>
       <c r="T6" t="n">
-        <v>921.1125000000001</v>
+        <v>78.72222222222223</v>
       </c>
       <c r="U6" t="n">
-        <v>910.6394444444444</v>
+        <v>64.58333333333333</v>
       </c>
       <c r="V6" t="n">
-        <v>78.72222222222223</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="W6" t="n">
-        <v>64.58333333333333</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="X6" t="n">
-        <v>5.944444444444445</v>
+        <v>15.8168458994709</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.055555555555555</v>
+        <v>16.02777777777778</v>
       </c>
       <c r="Z6" t="n">
-        <v>217.1297222222222</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.02777777777778</v>
+        <v>31.41826429588929</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.055555555555555</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.655</v>
+        <v>31.11111111111111</v>
       </c>
       <c r="AD6" t="n">
-        <v>116.6666666666667</v>
+        <v>85.55555555555556</v>
       </c>
       <c r="AE6" t="n">
-        <v>116.6666666666667</v>
+        <v>67.50243457468457</v>
       </c>
       <c r="AF6" t="n">
-        <v>31.11111111111111</v>
+        <v>68.48507870370371</v>
       </c>
       <c r="AG6" t="n">
-        <v>85.55555555555556</v>
+        <v>78.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>911.8563888888889</v>
+        <v>60.91666666666666</v>
       </c>
       <c r="AI6" t="n">
-        <v>925.1247222222222</v>
+        <v>9.194444444444445</v>
       </c>
       <c r="AJ6" t="n">
-        <v>78.66666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="AK6" t="n">
-        <v>60.91666666666666</v>
+        <v>22.79443487993488</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.194444444444445</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.083333333333333</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="AN6" t="n">
-        <v>308.5338888888889</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>18.05555555555556</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>8.555555555555555</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>423.9866666666667</v>
+        <v>31.4987731990232</v>
       </c>
     </row>
     <row r="7">
@@ -1325,127 +1265,118 @@
         <v>18.57894736842105</v>
       </c>
       <c r="C7" t="n">
-        <v>18.57894736842105</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="D7" t="n">
-        <v>4.210526315789473</v>
+        <v>14.36842105263158</v>
       </c>
       <c r="E7" t="n">
-        <v>14.36842105263158</v>
+        <v>48.31257670618854</v>
       </c>
       <c r="F7" t="n">
-        <v>652.6205263157896</v>
+        <v>43.49472714639162</v>
       </c>
       <c r="G7" t="n">
-        <v>586.2605263157895</v>
+        <v>15.07894736842105</v>
       </c>
       <c r="H7" t="n">
-        <v>15.07894736842105</v>
+        <v>12.1578947368421</v>
       </c>
       <c r="I7" t="n">
-        <v>12.1578947368421</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="J7" t="n">
-        <v>1.921052631578947</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="K7" t="n">
-        <v>1.210526315789474</v>
+        <v>7.319627433969539</v>
       </c>
       <c r="L7" t="n">
-        <v>100.4386842105263</v>
+        <v>3.315789473684211</v>
       </c>
       <c r="M7" t="n">
-        <v>3.315789473684211</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="N7" t="n">
-        <v>1.736842105263158</v>
+        <v>10.54791893194525</v>
       </c>
       <c r="O7" t="n">
-        <v>141.6665789473684</v>
+        <v>95.36842105263158</v>
       </c>
       <c r="P7" t="n">
-        <v>95.36842105263158</v>
+        <v>19.21052631578947</v>
       </c>
       <c r="Q7" t="n">
-        <v>95.36842105263158</v>
+        <v>76.15789473684211</v>
       </c>
       <c r="R7" t="n">
-        <v>19.21052631578947</v>
+        <v>72.16281691809652</v>
       </c>
       <c r="S7" t="n">
-        <v>76.15789473684211</v>
+        <v>73.07970475467515</v>
       </c>
       <c r="T7" t="n">
-        <v>969.0165789473683</v>
+        <v>79.47368421052632</v>
       </c>
       <c r="U7" t="n">
-        <v>981.1952631578947</v>
+        <v>65.39473684210526</v>
       </c>
       <c r="V7" t="n">
-        <v>79.47368421052632</v>
+        <v>6.394736842105263</v>
       </c>
       <c r="W7" t="n">
-        <v>65.39473684210526</v>
+        <v>3.447368421052631</v>
       </c>
       <c r="X7" t="n">
-        <v>6.394736842105263</v>
+        <v>17.87147281665703</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.447368421052631</v>
+        <v>15.63157894736842</v>
       </c>
       <c r="Z7" t="n">
-        <v>246.9302631578948</v>
+        <v>8.342105263157896</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.63157894736842</v>
+        <v>32.64219774998394</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.342105263157896</v>
+        <v>124.9736842105263</v>
       </c>
       <c r="AC7" t="n">
-        <v>440.57</v>
+        <v>30.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>124.9736842105263</v>
+        <v>94.47368421052632</v>
       </c>
       <c r="AE7" t="n">
-        <v>124.9736842105263</v>
+        <v>71.82156802262065</v>
       </c>
       <c r="AF7" t="n">
-        <v>30.5</v>
+        <v>73.54020133667503</v>
       </c>
       <c r="AG7" t="n">
-        <v>94.47368421052632</v>
+        <v>82.36842105263158</v>
       </c>
       <c r="AH7" t="n">
-        <v>963.2623684210527</v>
+        <v>66.23684210526316</v>
       </c>
       <c r="AI7" t="n">
-        <v>987.8752631578948</v>
+        <v>9.157894736842104</v>
       </c>
       <c r="AJ7" t="n">
-        <v>82.36842105263158</v>
+        <v>4.921052631578948</v>
       </c>
       <c r="AK7" t="n">
-        <v>66.23684210526316</v>
+        <v>22.77283870332884</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.157894736842104</v>
+        <v>19.07894736842105</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.921052631578948</v>
+        <v>10.21052631578947</v>
       </c>
       <c r="AN7" t="n">
-        <v>309.6497368421053</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19.07894736842105</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>10.21052631578947</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>483.9828947368421</v>
+        <v>36.24011710767303</v>
       </c>
     </row>
     <row r="8">
@@ -1458,127 +1389,118 @@
         <v>17.21052631578947</v>
       </c>
       <c r="C8" t="n">
-        <v>17.21052631578947</v>
+        <v>3.605263157894737</v>
       </c>
       <c r="D8" t="n">
-        <v>3.605263157894737</v>
+        <v>13.60526315789474</v>
       </c>
       <c r="E8" t="n">
-        <v>13.60526315789474</v>
+        <v>49.96943696654223</v>
       </c>
       <c r="F8" t="n">
-        <v>654.0442105263159</v>
+        <v>44.48810602555339</v>
       </c>
       <c r="G8" t="n">
-        <v>581.4621052631579</v>
+        <v>14.3421052631579</v>
       </c>
       <c r="H8" t="n">
-        <v>14.3421052631579</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="I8" t="n">
-        <v>11.57894736842105</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="J8" t="n">
-        <v>1.789473684210526</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="K8" t="n">
-        <v>1.026315789473684</v>
+        <v>7.141980826191352</v>
       </c>
       <c r="L8" t="n">
-        <v>94.73684210526316</v>
+        <v>2.868421052631579</v>
       </c>
       <c r="M8" t="n">
-        <v>2.868421052631579</v>
+        <v>1.342105263157895</v>
       </c>
       <c r="N8" t="n">
-        <v>1.342105263157895</v>
+        <v>8.516496529786004</v>
       </c>
       <c r="O8" t="n">
-        <v>112.7194736842105</v>
+        <v>90.84210526315789</v>
       </c>
       <c r="P8" t="n">
-        <v>90.84210526315789</v>
+        <v>18.68421052631579</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.84210526315789</v>
+        <v>72.15789473684211</v>
       </c>
       <c r="R8" t="n">
-        <v>18.68421052631579</v>
+        <v>72.60232507843034</v>
       </c>
       <c r="S8" t="n">
-        <v>72.15789473684211</v>
+        <v>71.77237044534412</v>
       </c>
       <c r="T8" t="n">
-        <v>945.8639473684211</v>
+        <v>74.92105263157895</v>
       </c>
       <c r="U8" t="n">
-        <v>937.2052631578948</v>
+        <v>61.23684210526316</v>
       </c>
       <c r="V8" t="n">
-        <v>74.92105263157895</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="W8" t="n">
-        <v>61.23684210526316</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>5.763157894736842</v>
+        <v>16.28732236623026</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>13.76315789473684</v>
       </c>
       <c r="Z8" t="n">
-        <v>211.0084210526316</v>
+        <v>6.710526315789473</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.76315789473684</v>
+        <v>28.27742029461766</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.710526315789473</v>
+        <v>119.6842105263158</v>
       </c>
       <c r="AC8" t="n">
-        <v>364.5131578947368</v>
+        <v>32.28947368421053</v>
       </c>
       <c r="AD8" t="n">
-        <v>119.6842105263158</v>
+        <v>87.39473684210526</v>
       </c>
       <c r="AE8" t="n">
-        <v>119.6842105263158</v>
+        <v>66.97948010761168</v>
       </c>
       <c r="AF8" t="n">
-        <v>32.28947368421053</v>
+        <v>68.4265810286205</v>
       </c>
       <c r="AG8" t="n">
-        <v>87.39473684210526</v>
+        <v>75.76315789473684</v>
       </c>
       <c r="AH8" t="n">
-        <v>870.7715789473684</v>
+        <v>58.97368421052632</v>
       </c>
       <c r="AI8" t="n">
-        <v>886.5786842105263</v>
+        <v>8.631578947368421</v>
       </c>
       <c r="AJ8" t="n">
-        <v>75.76315789473684</v>
+        <v>4.868421052631579</v>
       </c>
       <c r="AK8" t="n">
-        <v>58.97368421052632</v>
+        <v>23.8450999789684</v>
       </c>
       <c r="AL8" t="n">
-        <v>8.631578947368421</v>
+        <v>16.07894736842105</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.868421052631579</v>
+        <v>8.078947368421053</v>
       </c>
       <c r="AN8" t="n">
-        <v>308.3334210526316</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>16.07894736842105</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>8.078947368421053</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>376.9302631578947</v>
+        <v>29.03023746867168</v>
       </c>
     </row>
     <row r="9">
@@ -1591,127 +1513,118 @@
         <v>17.58333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>17.58333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>3.333333333333333</v>
+        <v>14.25</v>
       </c>
       <c r="E9" t="n">
-        <v>14.25</v>
+        <v>46.65122012362637</v>
       </c>
       <c r="F9" t="n">
-        <v>631.4137500000001</v>
+        <v>43.17042090201465</v>
       </c>
       <c r="G9" t="n">
-        <v>586.3491666666666</v>
+        <v>13.875</v>
       </c>
       <c r="H9" t="n">
-        <v>13.875</v>
+        <v>11.54166666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>11.54166666666667</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5833333333333334</v>
+        <v>4.062118437118437</v>
       </c>
       <c r="L9" t="n">
-        <v>52.08333333333334</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>2.583333333333333</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>1.458333333333333</v>
+        <v>8.965600389194138</v>
       </c>
       <c r="O9" t="n">
-        <v>121.5279166666667</v>
+        <v>89.41666666666667</v>
       </c>
       <c r="P9" t="n">
-        <v>89.41666666666667</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.41666666666667</v>
+        <v>69.5</v>
       </c>
       <c r="R9" t="n">
-        <v>19.91666666666667</v>
+        <v>67.95888675213675</v>
       </c>
       <c r="S9" t="n">
-        <v>69.5</v>
+        <v>69.10037980769231</v>
       </c>
       <c r="T9" t="n">
-        <v>919.5616666666666</v>
+        <v>72.5</v>
       </c>
       <c r="U9" t="n">
-        <v>933.8420833333333</v>
+        <v>58.75</v>
       </c>
       <c r="V9" t="n">
-        <v>72.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>58.75</v>
+        <v>3.375</v>
       </c>
       <c r="X9" t="n">
-        <v>5.916666666666667</v>
+        <v>17.92355784493285</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.375</v>
+        <v>14.41666666666667</v>
       </c>
       <c r="Z9" t="n">
-        <v>243.0558333333333</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.41666666666667</v>
+        <v>30.50917612942613</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.541666666666667</v>
+        <v>121.75</v>
       </c>
       <c r="AC9" t="n">
-        <v>407.6370833333334</v>
+        <v>33.45833333333334</v>
       </c>
       <c r="AD9" t="n">
-        <v>121.75</v>
+        <v>88.29166666666667</v>
       </c>
       <c r="AE9" t="n">
-        <v>121.75</v>
+        <v>68.47422638125762</v>
       </c>
       <c r="AF9" t="n">
-        <v>33.45833333333334</v>
+        <v>71.18850946275946</v>
       </c>
       <c r="AG9" t="n">
-        <v>88.29166666666667</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="n">
-        <v>924.4358333333333</v>
+        <v>59.375</v>
       </c>
       <c r="AI9" t="n">
-        <v>958.5804166666667</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>76</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AK9" t="n">
-        <v>59.375</v>
+        <v>17.38116502594628</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.833333333333333</v>
+        <v>7.458333333333333</v>
       </c>
       <c r="AN9" t="n">
-        <v>238.8883333333333</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>7.458333333333333</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>415.07</v>
+        <v>30.41107058913309</v>
       </c>
     </row>
     <row r="10">
@@ -1724,127 +1637,118 @@
         <v>15.25714285714286</v>
       </c>
       <c r="C10" t="n">
-        <v>15.25714285714286</v>
+        <v>3.485714285714286</v>
       </c>
       <c r="D10" t="n">
-        <v>3.485714285714286</v>
+        <v>11.77142857142857</v>
       </c>
       <c r="E10" t="n">
-        <v>11.77142857142857</v>
+        <v>44.05387825349253</v>
       </c>
       <c r="F10" t="n">
-        <v>579.4294285714285</v>
+        <v>37.45310160950161</v>
       </c>
       <c r="G10" t="n">
-        <v>493.0574285714285</v>
+        <v>12.05714285714286</v>
       </c>
       <c r="H10" t="n">
-        <v>12.05714285714286</v>
+        <v>9.457142857142857</v>
       </c>
       <c r="I10" t="n">
-        <v>9.457142857142857</v>
+        <v>1.171428571428571</v>
       </c>
       <c r="J10" t="n">
-        <v>1.171428571428571</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6571428571428571</v>
+        <v>4.208624106052678</v>
       </c>
       <c r="L10" t="n">
-        <v>54.762</v>
+        <v>2.485714285714286</v>
       </c>
       <c r="M10" t="n">
-        <v>2.485714285714286</v>
+        <v>1.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.2</v>
+        <v>7.125435723007151</v>
       </c>
       <c r="O10" t="n">
-        <v>94.286</v>
+        <v>85.8</v>
       </c>
       <c r="P10" t="n">
-        <v>85.8</v>
+        <v>18.88571428571429</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.8</v>
+        <v>66.91428571428571</v>
       </c>
       <c r="R10" t="n">
-        <v>18.88571428571429</v>
+        <v>69.81256076780363</v>
       </c>
       <c r="S10" t="n">
-        <v>66.91428571428571</v>
+        <v>69.80721572237287</v>
       </c>
       <c r="T10" t="n">
-        <v>927.3368571428572</v>
+        <v>70.34285714285714</v>
       </c>
       <c r="U10" t="n">
-        <v>927.6831428571428</v>
+        <v>56.77142857142857</v>
       </c>
       <c r="V10" t="n">
-        <v>70.34285714285714</v>
+        <v>4.371428571428571</v>
       </c>
       <c r="W10" t="n">
-        <v>56.77142857142857</v>
+        <v>2.171428571428571</v>
       </c>
       <c r="X10" t="n">
-        <v>4.371428571428571</v>
+        <v>12.89090214547358</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.171428571428571</v>
+        <v>13.22857142857143</v>
       </c>
       <c r="Z10" t="n">
-        <v>172.6191428571429</v>
+        <v>6.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>13.22857142857143</v>
+        <v>29.78331644863073</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.4</v>
+        <v>116.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>394.0954285714286</v>
+        <v>34.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>116.2</v>
+        <v>81.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>116.2</v>
+        <v>63.95889794015508</v>
       </c>
       <c r="AF10" t="n">
-        <v>34.4</v>
+        <v>66.24117682634825</v>
       </c>
       <c r="AG10" t="n">
-        <v>81.8</v>
+        <v>74.94285714285714</v>
       </c>
       <c r="AH10" t="n">
-        <v>850.8882857142858</v>
+        <v>56.11428571428571</v>
       </c>
       <c r="AI10" t="n">
-        <v>877.2745714285714</v>
+        <v>7.314285714285714</v>
       </c>
       <c r="AJ10" t="n">
-        <v>74.94285714285714</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="AK10" t="n">
-        <v>56.11428571428571</v>
+        <v>18.19533855033855</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.314285714285714</v>
+        <v>18.17142857142857</v>
       </c>
       <c r="AM10" t="n">
-        <v>3.571428571428572</v>
+        <v>8.457142857142857</v>
       </c>
       <c r="AN10" t="n">
-        <v>240.0954285714286</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>18.17142857142857</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>8.457142857142857</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>384.2214285714286</v>
+        <v>28.84227097347097</v>
       </c>
     </row>
     <row r="11">
@@ -1857,127 +1761,118 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>2.942857142857143</v>
       </c>
       <c r="D11" t="n">
-        <v>2.942857142857143</v>
+        <v>13.05714285714286</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05714285714286</v>
+        <v>50.58772012273441</v>
       </c>
       <c r="F11" t="n">
-        <v>682.4497142857143</v>
+        <v>45.63405838447267</v>
       </c>
       <c r="G11" t="n">
-        <v>617.572</v>
+        <v>12.88571428571429</v>
       </c>
       <c r="H11" t="n">
-        <v>12.88571428571429</v>
+        <v>10.77142857142857</v>
       </c>
       <c r="I11" t="n">
-        <v>10.77142857142857</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.6</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9142857142857143</v>
+        <v>5.274470434327577</v>
       </c>
       <c r="L11" t="n">
-        <v>71.90485714285714</v>
+        <v>2.514285714285714</v>
       </c>
       <c r="M11" t="n">
-        <v>2.514285714285714</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="N11" t="n">
-        <v>1.428571428571429</v>
+        <v>8.814756671899529</v>
       </c>
       <c r="O11" t="n">
-        <v>121.4285714285714</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>86.59999999999999</v>
+        <v>20.68571428571429</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.59999999999999</v>
+        <v>65.91428571428571</v>
       </c>
       <c r="R11" t="n">
-        <v>20.68571428571429</v>
+        <v>67.46282431378145</v>
       </c>
       <c r="S11" t="n">
-        <v>65.91428571428571</v>
+        <v>66.84314445554446</v>
       </c>
       <c r="T11" t="n">
-        <v>910.804</v>
+        <v>68.42857142857143</v>
       </c>
       <c r="U11" t="n">
-        <v>903.4505714285715</v>
+        <v>53.94285714285714</v>
       </c>
       <c r="V11" t="n">
-        <v>68.42857142857143</v>
+        <v>6</v>
       </c>
       <c r="W11" t="n">
-        <v>53.94285714285714</v>
+        <v>2.971428571428572</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>16.67410479996194</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.971428571428572</v>
+        <v>14.02857142857143</v>
       </c>
       <c r="Z11" t="n">
-        <v>220.9522857142857</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.02857142857143</v>
+        <v>26.31263093573094</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.428571428571429</v>
+        <v>120.0857142857143</v>
       </c>
       <c r="AC11" t="n">
-        <v>354.3805714285714</v>
+        <v>31.82857142857143</v>
       </c>
       <c r="AD11" t="n">
-        <v>120.0857142857143</v>
+        <v>88.25714285714285</v>
       </c>
       <c r="AE11" t="n">
-        <v>120.0857142857143</v>
+        <v>69.06532177346463</v>
       </c>
       <c r="AF11" t="n">
-        <v>31.82857142857143</v>
+        <v>70.63126505875077</v>
       </c>
       <c r="AG11" t="n">
-        <v>88.25714285714285</v>
+        <v>79.02857142857142</v>
       </c>
       <c r="AH11" t="n">
-        <v>930.7688571428571</v>
+        <v>61.94285714285714</v>
       </c>
       <c r="AI11" t="n">
-        <v>953.2457142857143</v>
+        <v>8.6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>79.02857142857142</v>
+        <v>4.542857142857143</v>
       </c>
       <c r="AK11" t="n">
-        <v>61.94285714285714</v>
+        <v>22.59771058465344</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.6</v>
+        <v>17.34285714285714</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.542857142857143</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="AN11" t="n">
-        <v>311.5234285714286</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17.34285714285714</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>8.142857142857142</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>402.6182857142857</v>
+        <v>29.7947419627991</v>
       </c>
     </row>
     <row r="12">
@@ -1990,127 +1885,118 @@
         <v>14.70588235294118</v>
       </c>
       <c r="C12" t="n">
-        <v>14.70588235294118</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>10.70588235294118</v>
       </c>
       <c r="E12" t="n">
-        <v>10.70588235294118</v>
+        <v>42.80124850639557</v>
       </c>
       <c r="F12" t="n">
-        <v>545.6138235294118</v>
+        <v>39.43773776713482</v>
       </c>
       <c r="G12" t="n">
-        <v>502.2805882352941</v>
+        <v>12.20588235294118</v>
       </c>
       <c r="H12" t="n">
-        <v>12.20588235294118</v>
+        <v>9.058823529411764</v>
       </c>
       <c r="I12" t="n">
-        <v>9.058823529411764</v>
+        <v>1.617647058823529</v>
       </c>
       <c r="J12" t="n">
-        <v>1.617647058823529</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8529411764705882</v>
+        <v>6.007913654972478</v>
       </c>
       <c r="L12" t="n">
-        <v>76.47058823529412</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="M12" t="n">
-        <v>2.705882352941177</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="N12" t="n">
-        <v>1.235294117647059</v>
+        <v>8.141449432920021</v>
       </c>
       <c r="O12" t="n">
-        <v>104.9020588235294</v>
+        <v>74.5</v>
       </c>
       <c r="P12" t="n">
-        <v>74.5</v>
+        <v>18.52941176470588</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.5</v>
+        <v>55.97058823529412</v>
       </c>
       <c r="R12" t="n">
-        <v>18.52941176470588</v>
+        <v>66.02102860864626</v>
       </c>
       <c r="S12" t="n">
-        <v>55.97058823529412</v>
+        <v>65.36124269358093</v>
       </c>
       <c r="T12" t="n">
-        <v>850.9688235294117</v>
+        <v>59.3235294117647</v>
       </c>
       <c r="U12" t="n">
-        <v>842.9864705882353</v>
+        <v>46.26470588235294</v>
       </c>
       <c r="V12" t="n">
-        <v>59.3235294117647</v>
+        <v>4.735294117647059</v>
       </c>
       <c r="W12" t="n">
-        <v>46.26470588235294</v>
+        <v>2.235294117647059</v>
       </c>
       <c r="X12" t="n">
-        <v>4.735294117647059</v>
+        <v>12.59318642142172</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.235294117647059</v>
+        <v>11.73529411764706</v>
       </c>
       <c r="Z12" t="n">
-        <v>161.519705882353</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.73529411764706</v>
+        <v>24.45699733110027</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.617647058823529</v>
+        <v>100.4117647058823</v>
       </c>
       <c r="AC12" t="n">
-        <v>314.4367647058824</v>
+        <v>29.91176470588235</v>
       </c>
       <c r="AD12" t="n">
-        <v>100.4117647058823</v>
+        <v>70.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>100.4117647058823</v>
+        <v>67.15869234197176</v>
       </c>
       <c r="AF12" t="n">
-        <v>29.91176470588235</v>
+        <v>68.00010246616129</v>
       </c>
       <c r="AG12" t="n">
-        <v>70.5</v>
+        <v>63.11764705882353</v>
       </c>
       <c r="AH12" t="n">
-        <v>864.2205882352941</v>
+        <v>46.47058823529412</v>
       </c>
       <c r="AI12" t="n">
-        <v>876.1164705882353</v>
+        <v>6.617647058823529</v>
       </c>
       <c r="AJ12" t="n">
-        <v>63.11764705882353</v>
+        <v>3.382352941176471</v>
       </c>
       <c r="AK12" t="n">
-        <v>46.47058823529412</v>
+        <v>18.89425205676676</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.617647058823529</v>
+        <v>16.61764705882353</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.382352941176471</v>
+        <v>7.705882352941177</v>
       </c>
       <c r="AN12" t="n">
-        <v>241.7155882352941</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>16.61764705882353</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>7.705882352941177</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>396.3935294117647</v>
+        <v>30.93813300425065</v>
       </c>
     </row>
     <row r="13">
@@ -2123,127 +2009,118 @@
         <v>15.52777777777778</v>
       </c>
       <c r="C13" t="n">
-        <v>15.52777777777778</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>3.833333333333333</v>
+        <v>11.69444444444444</v>
       </c>
       <c r="E13" t="n">
-        <v>11.69444444444444</v>
+        <v>45.62518643239477</v>
       </c>
       <c r="F13" t="n">
-        <v>595.718611111111</v>
+        <v>41.88830714039047</v>
       </c>
       <c r="G13" t="n">
-        <v>545.3944444444445</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>12.91666666666667</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="I13" t="n">
-        <v>9.916666666666666</v>
+        <v>1.638888888888889</v>
       </c>
       <c r="J13" t="n">
-        <v>1.638888888888889</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8611111111111112</v>
+        <v>5.851132478632478</v>
       </c>
       <c r="L13" t="n">
-        <v>78.70361111111112</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="M13" t="n">
-        <v>2.777777777777778</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>1.166666666666667</v>
+        <v>6.954798281964949</v>
       </c>
       <c r="O13" t="n">
-        <v>90.50916666666666</v>
+        <v>81.41666666666667</v>
       </c>
       <c r="P13" t="n">
-        <v>81.41666666666667</v>
+        <v>20.19444444444444</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.41666666666667</v>
+        <v>61.22222222222222</v>
       </c>
       <c r="R13" t="n">
-        <v>20.19444444444444</v>
+        <v>68.43668804189637</v>
       </c>
       <c r="S13" t="n">
-        <v>61.22222222222222</v>
+        <v>68.97209121434122</v>
       </c>
       <c r="T13" t="n">
-        <v>895.4077777777778</v>
+        <v>66.80555555555556</v>
       </c>
       <c r="U13" t="n">
-        <v>901.4372222222223</v>
+        <v>51.91666666666666</v>
       </c>
       <c r="V13" t="n">
-        <v>66.80555555555556</v>
+        <v>5.361111111111111</v>
       </c>
       <c r="W13" t="n">
-        <v>51.91666666666666</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="X13" t="n">
-        <v>5.361111111111111</v>
+        <v>14.04730974889308</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.444444444444445</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="Z13" t="n">
-        <v>181.7127777777778</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.05555555555556</v>
+        <v>29.01021299842133</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.083333333333333</v>
+        <v>111.6111111111111</v>
       </c>
       <c r="AC13" t="n">
-        <v>376.6211111111111</v>
+        <v>32.58333333333334</v>
       </c>
       <c r="AD13" t="n">
-        <v>111.6111111111111</v>
+        <v>79.02777777777777</v>
       </c>
       <c r="AE13" t="n">
-        <v>111.6111111111111</v>
+        <v>65.23249981191648</v>
       </c>
       <c r="AF13" t="n">
-        <v>32.58333333333334</v>
+        <v>67.47213556505224</v>
       </c>
       <c r="AG13" t="n">
-        <v>79.02777777777777</v>
+        <v>72.55555555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>855.5758333333333</v>
+        <v>55.11111111111111</v>
       </c>
       <c r="AI13" t="n">
-        <v>883.1130555555555</v>
+        <v>7.25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>72.55555555555556</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="AK13" t="n">
-        <v>55.11111111111111</v>
+        <v>17.30853636332803</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.25</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.277777777777778</v>
+        <v>7.305555555555555</v>
       </c>
       <c r="AN13" t="n">
-        <v>224.3975</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15.88888888888889</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>7.305555555555555</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>401.5602777777778</v>
+        <v>30.872337005587</v>
       </c>
     </row>
     <row r="14">
@@ -2256,127 +2133,118 @@
         <v>14.34615384615385</v>
       </c>
       <c r="C14" t="n">
-        <v>14.34615384615385</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D14" t="n">
+        <v>11.26923076923077</v>
+      </c>
+      <c r="E14" t="n">
+        <v>44.8761241707011</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40.79489142908373</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.19230769230769</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.115384615384615</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.986590332744179</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.653846153846154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.816119777658241</v>
+      </c>
+      <c r="O14" t="n">
+        <v>77.07692307692308</v>
+      </c>
+      <c r="P14" t="n">
+        <v>16.57692307692308</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>71.52286824073363</v>
+      </c>
+      <c r="S14" t="n">
+        <v>70.71778125080048</v>
+      </c>
+      <c r="T14" t="n">
+        <v>60.23076923076923</v>
+      </c>
+      <c r="U14" t="n">
+        <v>48.53846153846154</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.538461538461538</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.653846153846154</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10.38063583852045</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.88461538461539</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6.538461538461538</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>31.98001843028766</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>99.34615384615384</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26.65384615384615</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>72.69230769230769</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>68.46994383501114</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>70.37579155459925</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>61.30769230769231</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>48.34615384615385</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.576923076923077</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>3.076923076923077</v>
       </c>
-      <c r="E14" t="n">
-        <v>11.26923076923077</v>
-      </c>
-      <c r="F14" t="n">
-        <v>551.8223076923076</v>
-      </c>
-      <c r="G14" t="n">
-        <v>505.3207692307693</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11.19230769230769</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.115384615384615</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L14" t="n">
-        <v>51.92307692307692</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.653846153846154</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="O14" t="n">
-        <v>113.4615384615385</v>
-      </c>
-      <c r="P14" t="n">
-        <v>77.07692307692308</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>77.07692307692308</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16.57692307692308</v>
-      </c>
-      <c r="S14" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>865.5038461538461</v>
-      </c>
-      <c r="U14" t="n">
-        <v>851.9146153846153</v>
-      </c>
-      <c r="V14" t="n">
-        <v>60.23076923076923</v>
-      </c>
-      <c r="W14" t="n">
-        <v>48.53846153846154</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.538461538461538</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.653846153846154</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>129.1665384615385</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12.88461538461539</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6.538461538461538</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>385.5761538461538</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>99.34615384615384</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>99.34615384615384</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>26.65384615384615</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>72.69230769230769</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>832.6507692307691</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>857.733076923077</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>61.30769230769231</v>
-      </c>
       <c r="AK14" t="n">
-        <v>48.34615384615385</v>
+        <v>16.26005404851559</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.576923076923077</v>
+        <v>13.76923076923077</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.076923076923077</v>
+        <v>7.230769230769231</v>
       </c>
       <c r="AN14" t="n">
-        <v>200.9615384615385</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13.76923076923077</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7.230769230769231</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>387.2346153846154</v>
+        <v>31.3752353671969</v>
       </c>
     </row>
     <row r="15">
@@ -2389,127 +2257,118 @@
         <v>19.54054054054054</v>
       </c>
       <c r="C15" t="n">
-        <v>19.54054054054054</v>
+        <v>4.081081081081081</v>
       </c>
       <c r="D15" t="n">
-        <v>4.081081081081081</v>
+        <v>15.45945945945946</v>
       </c>
       <c r="E15" t="n">
-        <v>15.45945945945946</v>
+        <v>50.01596059796059</v>
       </c>
       <c r="F15" t="n">
-        <v>675.6278378378378</v>
+        <v>46.74466767916768</v>
       </c>
       <c r="G15" t="n">
-        <v>634.8437837837838</v>
+        <v>16.56756756756757</v>
       </c>
       <c r="H15" t="n">
-        <v>16.56756756756757</v>
+        <v>13.35135135135135</v>
       </c>
       <c r="I15" t="n">
-        <v>13.35135135135135</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="J15" t="n">
-        <v>1.621621621621622</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>6.104706104706105</v>
       </c>
       <c r="L15" t="n">
-        <v>83.78378378378379</v>
+        <v>2.864864864864865</v>
       </c>
       <c r="M15" t="n">
-        <v>2.864864864864865</v>
+        <v>1.486486486486486</v>
       </c>
       <c r="N15" t="n">
-        <v>1.486486486486486</v>
+        <v>9.967464967464968</v>
       </c>
       <c r="O15" t="n">
-        <v>135.1351351351351</v>
+        <v>96.45945945945945</v>
       </c>
       <c r="P15" t="n">
-        <v>96.45945945945945</v>
+        <v>19.45945945945946</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.45945945945945</v>
+        <v>77</v>
       </c>
       <c r="R15" t="n">
-        <v>19.45945945945946</v>
+        <v>72.98753728703728</v>
       </c>
       <c r="S15" t="n">
-        <v>77</v>
+        <v>74.22440756090757</v>
       </c>
       <c r="T15" t="n">
-        <v>992.3162162162162</v>
+        <v>80.24324324324324</v>
       </c>
       <c r="U15" t="n">
-        <v>1009.166756756757</v>
+        <v>66.45945945945945</v>
       </c>
       <c r="V15" t="n">
-        <v>80.24324324324324</v>
+        <v>5.837837837837838</v>
       </c>
       <c r="W15" t="n">
-        <v>66.45945945945945</v>
+        <v>3.54054054054054</v>
       </c>
       <c r="X15" t="n">
-        <v>5.837837837837838</v>
+        <v>17.81610539460539</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.54054054054054</v>
+        <v>14.78378378378378</v>
       </c>
       <c r="Z15" t="n">
-        <v>238.8289189189189</v>
+        <v>8.216216216216216</v>
       </c>
       <c r="AA15" t="n">
-        <v>14.78378378378378</v>
+        <v>31.3767195057195</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.216216216216216</v>
+        <v>125.5405405405405</v>
       </c>
       <c r="AC15" t="n">
-        <v>422.571081081081</v>
+        <v>31.94594594594595</v>
       </c>
       <c r="AD15" t="n">
-        <v>125.5405405405405</v>
+        <v>93.5945945945946</v>
       </c>
       <c r="AE15" t="n">
-        <v>125.5405405405405</v>
+        <v>70.05260366660366</v>
       </c>
       <c r="AF15" t="n">
-        <v>31.94594594594595</v>
+        <v>73.16830991980991</v>
       </c>
       <c r="AG15" t="n">
-        <v>93.5945945945946</v>
+        <v>81.37837837837837</v>
       </c>
       <c r="AH15" t="n">
-        <v>951.6475675675675</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="AI15" t="n">
-        <v>990.0083783783783</v>
+        <v>7.378378378378378</v>
       </c>
       <c r="AJ15" t="n">
-        <v>81.37837837837837</v>
+        <v>3.972972972972973</v>
       </c>
       <c r="AK15" t="n">
-        <v>64.86486486486487</v>
+        <v>16.8083548973549</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.378378378378378</v>
+        <v>14.97297297297297</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.972972972972973</v>
+        <v>7.081081081081081</v>
       </c>
       <c r="AN15" t="n">
-        <v>230.0002702702703</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>14.97297297297297</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>7.081081081081081</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>381.1710810810811</v>
+        <v>28.65079089379089</v>
       </c>
     </row>
     <row r="16">
@@ -2522,127 +2381,118 @@
         <v>15.55555555555556</v>
       </c>
       <c r="C16" t="n">
-        <v>15.55555555555556</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D16" t="n">
-        <v>3.888888888888889</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>11.66666666666667</v>
+        <v>44.70973313723314</v>
       </c>
       <c r="F16" t="n">
-        <v>606.2177777777778</v>
+        <v>41.96918916268916</v>
       </c>
       <c r="G16" t="n">
-        <v>569.7327777777778</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>12.83333333333333</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7777777777777778</v>
+        <v>5.274725274725275</v>
       </c>
       <c r="L16" t="n">
-        <v>72.22222222222223</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>7.842650590150591</v>
       </c>
       <c r="O16" t="n">
-        <v>106.0186111111111</v>
+        <v>85.25</v>
       </c>
       <c r="P16" t="n">
-        <v>85.25</v>
+        <v>20.52777777777778</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.25</v>
+        <v>64.72222222222223</v>
       </c>
       <c r="R16" t="n">
-        <v>20.52777777777778</v>
+        <v>67.72113871313871</v>
       </c>
       <c r="S16" t="n">
-        <v>64.72222222222223</v>
+        <v>67.26329986217486</v>
       </c>
       <c r="T16" t="n">
-        <v>922.9805555555556</v>
+        <v>69.88888888888889</v>
       </c>
       <c r="U16" t="n">
-        <v>917.9225</v>
+        <v>55.30555555555556</v>
       </c>
       <c r="V16" t="n">
-        <v>69.88888888888889</v>
+        <v>4.25</v>
       </c>
       <c r="W16" t="n">
-        <v>55.30555555555556</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="X16" t="n">
-        <v>4.25</v>
+        <v>12.71406268268768</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.111111111111111</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="Z16" t="n">
-        <v>172.2222222222222</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="AA16" t="n">
-        <v>13.88888888888889</v>
+        <v>28.50541218503719</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.583333333333333</v>
+        <v>115.2222222222222</v>
       </c>
       <c r="AC16" t="n">
-        <v>385.0927777777778</v>
+        <v>31.72222222222222</v>
       </c>
       <c r="AD16" t="n">
-        <v>115.2222222222222</v>
+        <v>83.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>115.2222222222222</v>
+        <v>69.16901911051912</v>
       </c>
       <c r="AF16" t="n">
-        <v>31.72222222222222</v>
+        <v>69.53505913530914</v>
       </c>
       <c r="AG16" t="n">
-        <v>83.5</v>
+        <v>73.55555555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>943.5558333333333</v>
+        <v>56.36111111111111</v>
       </c>
       <c r="AI16" t="n">
-        <v>949.0286111111111</v>
+        <v>6.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>73.55555555555556</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="AK16" t="n">
-        <v>56.36111111111111</v>
+        <v>17.13244859307359</v>
       </c>
       <c r="AL16" t="n">
-        <v>6.5</v>
+        <v>16.36111111111111</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.416666666666667</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>237.7783333333333</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>16.36111111111111</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>350.1386111111111</v>
+        <v>25.93525097125097</v>
       </c>
     </row>
     <row r="17">
@@ -2655,127 +2505,118 @@
         <v>15.30555555555556</v>
       </c>
       <c r="C17" t="n">
-        <v>15.30555555555556</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D17" t="n">
-        <v>3.777777777777778</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="E17" t="n">
-        <v>11.52777777777778</v>
+        <v>44.63842531542532</v>
       </c>
       <c r="F17" t="n">
-        <v>588.5391666666667</v>
+        <v>41.25513576701077</v>
       </c>
       <c r="G17" t="n">
-        <v>544.4913888888889</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>12.22222222222222</v>
+        <v>9.527777777777779</v>
       </c>
       <c r="I17" t="n">
-        <v>9.527777777777779</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>1.416666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7777777777777778</v>
+        <v>5.564828689828691</v>
       </c>
       <c r="L17" t="n">
-        <v>72.22222222222223</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="M17" t="n">
-        <v>3.055555555555555</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>1.583333333333333</v>
+        <v>10.01436121748622</v>
       </c>
       <c r="O17" t="n">
-        <v>131.0183333333333</v>
+        <v>82.36111111111111</v>
       </c>
       <c r="P17" t="n">
-        <v>82.36111111111111</v>
+        <v>21.13888888888889</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.36111111111111</v>
+        <v>61.22222222222222</v>
       </c>
       <c r="R17" t="n">
-        <v>21.13888888888889</v>
+        <v>68.19745424482925</v>
       </c>
       <c r="S17" t="n">
-        <v>61.22222222222222</v>
+        <v>68.6422484043734</v>
       </c>
       <c r="T17" t="n">
-        <v>895.1347222222222</v>
+        <v>64.47222222222223</v>
       </c>
       <c r="U17" t="n">
-        <v>899.3402777777778</v>
+        <v>49.36111111111111</v>
       </c>
       <c r="V17" t="n">
-        <v>64.47222222222223</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="W17" t="n">
-        <v>49.36111111111111</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="X17" t="n">
-        <v>5.111111111111111</v>
+        <v>13.94582582695083</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.416666666666667</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="Z17" t="n">
-        <v>182.6386111111111</v>
+        <v>8.027777777777779</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.61111111111111</v>
+        <v>28.59862419062419</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.027777777777779</v>
+        <v>122.0555555555556</v>
       </c>
       <c r="AC17" t="n">
-        <v>371.6677777777778</v>
+        <v>36.91666666666666</v>
       </c>
       <c r="AD17" t="n">
-        <v>122.0555555555556</v>
+        <v>85.13888888888889</v>
       </c>
       <c r="AE17" t="n">
-        <v>122.0555555555556</v>
+        <v>67.35056884781885</v>
       </c>
       <c r="AF17" t="n">
-        <v>36.91666666666666</v>
+        <v>68.47627925777925</v>
       </c>
       <c r="AG17" t="n">
-        <v>85.13888888888889</v>
+        <v>72.61111111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>882.7272222222223</v>
+        <v>53.58333333333334</v>
       </c>
       <c r="AI17" t="n">
-        <v>897.2327777777778</v>
+        <v>7.138888888888889</v>
       </c>
       <c r="AJ17" t="n">
-        <v>72.61111111111111</v>
+        <v>3.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>53.58333333333334</v>
+        <v>18.3799527972028</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.138888888888889</v>
+        <v>18.69444444444444</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN17" t="n">
-        <v>242.5919444444444</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>18.69444444444444</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>366.1733333333333</v>
+        <v>27.98930993543494</v>
       </c>
     </row>
     <row r="18">
@@ -2788,127 +2629,118 @@
         <v>14.51428571428571</v>
       </c>
       <c r="C18" t="n">
-        <v>14.51428571428571</v>
+        <v>3.914285714285714</v>
       </c>
       <c r="D18" t="n">
-        <v>3.914285714285714</v>
+        <v>10.6</v>
       </c>
       <c r="E18" t="n">
-        <v>10.6</v>
+        <v>41.96818963417535</v>
       </c>
       <c r="F18" t="n">
-        <v>563.0071428571429</v>
+        <v>38.8724872318158</v>
       </c>
       <c r="G18" t="n">
-        <v>521.2045714285714</v>
+        <v>11.94285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>11.94285714285714</v>
+        <v>8.971428571428572</v>
       </c>
       <c r="I18" t="n">
-        <v>8.971428571428572</v>
+        <v>1.657142857142857</v>
       </c>
       <c r="J18" t="n">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.205508776937349</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.942857142857143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.228571428571429</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.043528877471735</v>
+      </c>
+      <c r="O18" t="n">
+        <v>71.51428571428572</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17.48571428571428</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>54.02857142857143</v>
+      </c>
+      <c r="R18" t="n">
+        <v>67.55178917907489</v>
+      </c>
+      <c r="S18" t="n">
+        <v>67.96145776604348</v>
+      </c>
+      <c r="T18" t="n">
+        <v>59.05714285714286</v>
+      </c>
+      <c r="U18" t="n">
+        <v>45.65714285714286</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.942857142857143</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.657142857142857</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.8285714285714286</v>
-      </c>
-      <c r="L18" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.942857142857143</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.228571428571429</v>
-      </c>
-      <c r="O18" t="n">
-        <v>95.71428571428571</v>
-      </c>
-      <c r="P18" t="n">
-        <v>71.51428571428572</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>71.51428571428572</v>
-      </c>
-      <c r="R18" t="n">
-        <v>17.48571428571428</v>
-      </c>
-      <c r="S18" t="n">
-        <v>54.02857142857143</v>
-      </c>
-      <c r="T18" t="n">
-        <v>913.3342857142858</v>
-      </c>
-      <c r="U18" t="n">
-        <v>916.7874285714286</v>
-      </c>
-      <c r="V18" t="n">
-        <v>59.05714285714286</v>
-      </c>
-      <c r="W18" t="n">
-        <v>45.65714285714286</v>
-      </c>
       <c r="X18" t="n">
-        <v>3.942857142857143</v>
+        <v>10.57567096395668</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.657142857142857</v>
+        <v>14.34285714285714</v>
       </c>
       <c r="Z18" t="n">
-        <v>142.3808571428571</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.34285714285714</v>
+        <v>29.20720144458716</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>103.5428571428571</v>
       </c>
       <c r="AC18" t="n">
-        <v>389.6325714285714</v>
+        <v>30.45714285714286</v>
       </c>
       <c r="AD18" t="n">
-        <v>103.5428571428571</v>
+        <v>73.08571428571429</v>
       </c>
       <c r="AE18" t="n">
-        <v>103.5428571428571</v>
+        <v>67.03739770705485</v>
       </c>
       <c r="AF18" t="n">
-        <v>30.45714285714286</v>
+        <v>68.64859021613307</v>
       </c>
       <c r="AG18" t="n">
-        <v>73.08571428571429</v>
+        <v>68.25714285714285</v>
       </c>
       <c r="AH18" t="n">
-        <v>903.1811428571428</v>
+        <v>50.6</v>
       </c>
       <c r="AI18" t="n">
-        <v>925.6045714285714</v>
+        <v>5.914285714285715</v>
       </c>
       <c r="AJ18" t="n">
-        <v>68.25714285714285</v>
+        <v>3.028571428571428</v>
       </c>
       <c r="AK18" t="n">
-        <v>50.6</v>
+        <v>16.22813469070612</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.914285714285715</v>
+        <v>17.2</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.028571428571428</v>
+        <v>7.542857142857143</v>
       </c>
       <c r="AN18" t="n">
-        <v>222.3811428571429</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>7.542857142857143</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>388.9997142857143</v>
+        <v>28.82680672502101</v>
       </c>
     </row>
     <row r="19">
@@ -2921,127 +2753,118 @@
         <v>13.32352941176471</v>
       </c>
       <c r="C19" t="n">
-        <v>13.32352941176471</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>3.5</v>
+        <v>9.823529411764707</v>
       </c>
       <c r="E19" t="n">
-        <v>9.823529411764707</v>
+        <v>42.50789687763217</v>
       </c>
       <c r="F19" t="n">
-        <v>567.8929411764706</v>
+        <v>38.21506263344499</v>
       </c>
       <c r="G19" t="n">
-        <v>511.5197058823529</v>
+        <v>10.55882352941176</v>
       </c>
       <c r="H19" t="n">
-        <v>10.55882352941176</v>
+        <v>7.911764705882353</v>
       </c>
       <c r="I19" t="n">
-        <v>7.911764705882353</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="J19" t="n">
-        <v>1.735294117647059</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7647058823529411</v>
+        <v>5.228668390433096</v>
       </c>
       <c r="L19" t="n">
-        <v>70.58823529411765</v>
+        <v>3.088235294117647</v>
       </c>
       <c r="M19" t="n">
-        <v>3.088235294117647</v>
+        <v>1.558823529411765</v>
       </c>
       <c r="N19" t="n">
-        <v>1.558823529411765</v>
+        <v>10.07777345203816</v>
       </c>
       <c r="O19" t="n">
-        <v>132.8432352941176</v>
+        <v>74.35294117647059</v>
       </c>
       <c r="P19" t="n">
-        <v>74.35294117647059</v>
+        <v>21.11764705882353</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.35294117647059</v>
+        <v>53.23529411764706</v>
       </c>
       <c r="R19" t="n">
-        <v>21.11764705882353</v>
+        <v>66.51747199858966</v>
       </c>
       <c r="S19" t="n">
-        <v>53.23529411764706</v>
+        <v>64.94998173395231</v>
       </c>
       <c r="T19" t="n">
-        <v>882.77</v>
+        <v>58.64705882352941</v>
       </c>
       <c r="U19" t="n">
-        <v>859.3070588235294</v>
+        <v>42.61764705882353</v>
       </c>
       <c r="V19" t="n">
-        <v>58.64705882352941</v>
+        <v>4.823529411764706</v>
       </c>
       <c r="W19" t="n">
-        <v>42.61764705882353</v>
+        <v>2.382352941176471</v>
       </c>
       <c r="X19" t="n">
-        <v>4.823529411764706</v>
+        <v>14.15389424301189</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.382352941176471</v>
+        <v>16.79411764705882</v>
       </c>
       <c r="Z19" t="n">
-        <v>185.0491176470588</v>
+        <v>8.205882352941176</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.79411764705882</v>
+        <v>31.72148367808662</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.205882352941176</v>
+        <v>114.1764705882353</v>
       </c>
       <c r="AC19" t="n">
-        <v>420.9320588235294</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="n">
-        <v>114.1764705882353</v>
+        <v>76.17647058823529</v>
       </c>
       <c r="AE19" t="n">
-        <v>114.1764705882353</v>
+        <v>63.7754921451098</v>
       </c>
       <c r="AF19" t="n">
-        <v>38</v>
+        <v>64.37265538872893</v>
       </c>
       <c r="AG19" t="n">
-        <v>76.17647058823529</v>
+        <v>68.94117647058823</v>
       </c>
       <c r="AH19" t="n">
-        <v>848.7979411764707</v>
+        <v>48.70588235294117</v>
       </c>
       <c r="AI19" t="n">
-        <v>855.3005882352942</v>
+        <v>7.647058823529412</v>
       </c>
       <c r="AJ19" t="n">
-        <v>68.94117647058823</v>
+        <v>3.764705882352941</v>
       </c>
       <c r="AK19" t="n">
-        <v>48.70588235294117</v>
+        <v>19.43816873322756</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.647058823529412</v>
+        <v>19.32352941176471</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.764705882352941</v>
+        <v>8.588235294117647</v>
       </c>
       <c r="AN19" t="n">
-        <v>257.0097058823529</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>19.32352941176471</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>8.588235294117647</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>417.5317647058823</v>
+        <v>31.41111056590469</v>
       </c>
     </row>
     <row r="20">
@@ -3054,127 +2877,118 @@
         <v>15.13513513513514</v>
       </c>
       <c r="C20" t="n">
-        <v>15.13513513513514</v>
+        <v>3.675675675675676</v>
       </c>
       <c r="D20" t="n">
-        <v>3.675675675675676</v>
+        <v>11.45945945945946</v>
       </c>
       <c r="E20" t="n">
-        <v>11.45945945945946</v>
+        <v>41.30532491382491</v>
       </c>
       <c r="F20" t="n">
-        <v>559.2540540540541</v>
+        <v>38.10440668790668</v>
       </c>
       <c r="G20" t="n">
-        <v>516.4994594594594</v>
+        <v>12.35135135135135</v>
       </c>
       <c r="H20" t="n">
-        <v>12.35135135135135</v>
+        <v>9.54054054054054</v>
       </c>
       <c r="I20" t="n">
-        <v>9.54054054054054</v>
+        <v>1.648648648648649</v>
       </c>
       <c r="J20" t="n">
-        <v>1.648648648648649</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8378378378378378</v>
+        <v>5.691013761013761</v>
       </c>
       <c r="L20" t="n">
-        <v>79.27918918918918</v>
+        <v>3.324324324324324</v>
       </c>
       <c r="M20" t="n">
-        <v>3.324324324324324</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="N20" t="n">
-        <v>1.621621621621622</v>
+        <v>10.07956007956008</v>
       </c>
       <c r="O20" t="n">
-        <v>136.4864864864865</v>
+        <v>80.37837837837837</v>
       </c>
       <c r="P20" t="n">
-        <v>80.37837837837837</v>
+        <v>20.75675675675676</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.37837837837837</v>
+        <v>59.62162162162162</v>
       </c>
       <c r="R20" t="n">
-        <v>20.75675675675676</v>
+        <v>68.37409881109882</v>
       </c>
       <c r="S20" t="n">
-        <v>59.62162162162162</v>
+        <v>67.52088181638182</v>
       </c>
       <c r="T20" t="n">
-        <v>925.2202702702704</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="U20" t="n">
-        <v>913.6994594594594</v>
+        <v>49.7027027027027</v>
       </c>
       <c r="V20" t="n">
-        <v>65.37837837837837</v>
+        <v>4.486486486486487</v>
       </c>
       <c r="W20" t="n">
-        <v>49.7027027027027</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>4.486486486486487</v>
+        <v>11.44178736578737</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>17.48648648648649</v>
       </c>
       <c r="Z20" t="n">
-        <v>157.4324324324324</v>
+        <v>8.243243243243244</v>
       </c>
       <c r="AA20" t="n">
-        <v>17.48648648648649</v>
+        <v>29.40254472104472</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.243243243243244</v>
+        <v>118.4054054054054</v>
       </c>
       <c r="AC20" t="n">
-        <v>397.5791891891892</v>
+        <v>35.78378378378378</v>
       </c>
       <c r="AD20" t="n">
-        <v>118.4054054054054</v>
+        <v>82.62162162162163</v>
       </c>
       <c r="AE20" t="n">
-        <v>118.4054054054054</v>
+        <v>64.51875286875287</v>
       </c>
       <c r="AF20" t="n">
-        <v>35.78378378378378</v>
+        <v>65.91663007713008</v>
       </c>
       <c r="AG20" t="n">
-        <v>82.62162162162163</v>
+        <v>76.75675675675676</v>
       </c>
       <c r="AH20" t="n">
-        <v>874.877027027027</v>
+        <v>56</v>
       </c>
       <c r="AI20" t="n">
-        <v>895.7651351351351</v>
+        <v>6.405405405405405</v>
       </c>
       <c r="AJ20" t="n">
-        <v>76.75675675675676</v>
+        <v>3.243243243243243</v>
       </c>
       <c r="AK20" t="n">
-        <v>56</v>
+        <v>15.59855391455391</v>
       </c>
       <c r="AL20" t="n">
-        <v>6.405405405405405</v>
+        <v>20.81081081081081</v>
       </c>
       <c r="AM20" t="n">
-        <v>3.243243243243243</v>
+        <v>9.702702702702704</v>
       </c>
       <c r="AN20" t="n">
-        <v>213.7837837837838</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>20.81081081081081</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>9.702702702702704</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>434.6621621621622</v>
+        <v>32.10695688545689</v>
       </c>
     </row>
     <row r="21">
@@ -3187,127 +3001,118 @@
         <v>16.44444444444444</v>
       </c>
       <c r="C21" t="n">
-        <v>16.44444444444444</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="D21" t="n">
-        <v>3.638888888888889</v>
+        <v>12.80555555555556</v>
       </c>
       <c r="E21" t="n">
-        <v>12.80555555555556</v>
+        <v>48.45887168387168</v>
       </c>
       <c r="F21" t="n">
-        <v>626.6847222222223</v>
+        <v>44.86606297406297</v>
       </c>
       <c r="G21" t="n">
-        <v>580.8577777777778</v>
+        <v>13.52777777777778</v>
       </c>
       <c r="H21" t="n">
-        <v>13.52777777777778</v>
+        <v>10.63888888888889</v>
       </c>
       <c r="I21" t="n">
-        <v>10.63888888888889</v>
+        <v>1.805555555555556</v>
       </c>
       <c r="J21" t="n">
-        <v>1.805555555555556</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9444444444444444</v>
+        <v>6.548127798127798</v>
       </c>
       <c r="L21" t="n">
-        <v>83.33333333333333</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="M21" t="n">
-        <v>2.944444444444445</v>
+        <v>1.361111111111111</v>
       </c>
       <c r="N21" t="n">
-        <v>1.361111111111111</v>
+        <v>8.445968198468199</v>
       </c>
       <c r="O21" t="n">
-        <v>105.7869444444444</v>
+        <v>82.77777777777777</v>
       </c>
       <c r="P21" t="n">
-        <v>82.77777777777777</v>
+        <v>20.02777777777778</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.77777777777777</v>
+        <v>62.75</v>
       </c>
       <c r="R21" t="n">
-        <v>20.02777777777778</v>
+        <v>68.62834322159323</v>
       </c>
       <c r="S21" t="n">
-        <v>62.75</v>
+        <v>68.20011034798534</v>
       </c>
       <c r="T21" t="n">
-        <v>890.0961111111111</v>
+        <v>66.83333333333333</v>
       </c>
       <c r="U21" t="n">
-        <v>885.5022222222223</v>
+        <v>52.16666666666666</v>
       </c>
       <c r="V21" t="n">
-        <v>66.83333333333333</v>
+        <v>6</v>
       </c>
       <c r="W21" t="n">
-        <v>52.16666666666666</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>14.62346433196433</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.722222222222222</v>
+        <v>16.41666666666667</v>
       </c>
       <c r="Z21" t="n">
-        <v>185.0461111111111</v>
+        <v>8.027777777777779</v>
       </c>
       <c r="AA21" t="n">
-        <v>16.41666666666667</v>
+        <v>28.73568462093462</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.027777777777779</v>
+        <v>118.5555555555556</v>
       </c>
       <c r="AC21" t="n">
-        <v>373.1344444444445</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="AD21" t="n">
-        <v>118.5555555555556</v>
+        <v>85.22222222222223</v>
       </c>
       <c r="AE21" t="n">
-        <v>118.5555555555556</v>
+        <v>68.93938534613534</v>
       </c>
       <c r="AF21" t="n">
-        <v>33.33333333333334</v>
+        <v>68.21262764550265</v>
       </c>
       <c r="AG21" t="n">
-        <v>85.22222222222223</v>
+        <v>74.66666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>893.835</v>
+        <v>55.97222222222222</v>
       </c>
       <c r="AI21" t="n">
-        <v>879.38</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>74.66666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="AK21" t="n">
-        <v>55.97222222222222</v>
+        <v>19.9610596024346</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.333333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="AN21" t="n">
-        <v>255.5547222222222</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>18.72222222222222</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>408.7677777777778</v>
+        <v>31.56645583583084</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/metrique_pressure.xlsx
@@ -642,121 +642,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.27272727272727</v>
+        <v>24.07513281277198</v>
       </c>
       <c r="C2" t="n">
-        <v>3.96969696969697</v>
+        <v>3.799269055677978</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3030303030303</v>
+        <v>20.275863757094</v>
       </c>
       <c r="E2" t="n">
-        <v>55.3385989010989</v>
+        <v>52.7481845603303</v>
       </c>
       <c r="F2" t="n">
-        <v>54.81955808837628</v>
+        <v>52.28133421498961</v>
       </c>
       <c r="G2" t="n">
-        <v>22.51515151515152</v>
+        <v>21.4525929128096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.39393939393939</v>
+        <v>18.4756598134299</v>
       </c>
       <c r="I2" t="n">
-        <v>1.878787878787879</v>
+        <v>1.775636829763065</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03030303030303</v>
+        <v>0.9736277482982219</v>
       </c>
       <c r="K2" t="n">
-        <v>6.938710077800987</v>
+        <v>6.5490997487709</v>
       </c>
       <c r="L2" t="n">
-        <v>3.333333333333333</v>
+        <v>3.17252263552265</v>
       </c>
       <c r="M2" t="n">
-        <v>1.818181818181818</v>
+        <v>1.726716817859081</v>
       </c>
       <c r="N2" t="n">
-        <v>11.65372506281597</v>
+        <v>11.06630808873788</v>
       </c>
       <c r="O2" t="n">
-        <v>103.8787878787879</v>
+        <v>98.99958341210348</v>
       </c>
       <c r="P2" t="n">
-        <v>20.45454545454545</v>
+        <v>19.52052953313373</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.42424242424242</v>
+        <v>79.47905387896975</v>
       </c>
       <c r="R2" t="n">
-        <v>75.15010799806254</v>
+        <v>71.61840760179791</v>
       </c>
       <c r="S2" t="n">
-        <v>75.67871258539441</v>
+        <v>72.12293448120039</v>
       </c>
       <c r="T2" t="n">
-        <v>89.96969696969697</v>
+        <v>85.7478292417571</v>
       </c>
       <c r="U2" t="n">
-        <v>74.45454545454545</v>
+        <v>70.9460325627859</v>
       </c>
       <c r="V2" t="n">
-        <v>7.393939393939394</v>
+        <v>7.034480936064599</v>
       </c>
       <c r="W2" t="n">
-        <v>3.727272727272727</v>
+        <v>3.539943673163451</v>
       </c>
       <c r="X2" t="n">
-        <v>19.94717571317571</v>
+        <v>18.96347301816437</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.45454545454545</v>
+        <v>16.64702067334411</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.636363636363637</v>
+        <v>8.234340299792436</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.8989662256935</v>
+        <v>29.44491525312177</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.969696969697</v>
+        <v>122.8252504052022</v>
       </c>
       <c r="AC2" t="n">
-        <v>32.06060606060606</v>
+        <v>30.52628880454227</v>
       </c>
       <c r="AD2" t="n">
-        <v>96.90909090909091</v>
+        <v>92.29896160065991</v>
       </c>
       <c r="AE2" t="n">
-        <v>71.54164460287188</v>
+        <v>68.13955103761599</v>
       </c>
       <c r="AF2" t="n">
-        <v>74.28475428611793</v>
+        <v>70.79985279798697</v>
       </c>
       <c r="AG2" t="n">
-        <v>90.36363636363636</v>
+        <v>86.08387796585318</v>
       </c>
       <c r="AH2" t="n">
-        <v>72.87878787878788</v>
+        <v>69.43069729599193</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.333333333333334</v>
+        <v>8.881984683447522</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.272727272727272</v>
+        <v>5.007823244097714</v>
       </c>
       <c r="AK2" t="n">
-        <v>26.41538661338661</v>
+        <v>25.03099732277546</v>
       </c>
       <c r="AL2" t="n">
-        <v>18.87878787878788</v>
+        <v>17.98555016221655</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.575757575757576</v>
+        <v>9.132307093088723</v>
       </c>
       <c r="AN2" t="n">
-        <v>32.72941990837445</v>
+        <v>31.25155022418477</v>
       </c>
     </row>
     <row r="3">
@@ -766,121 +766,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.36842105263158</v>
+        <v>14.07693467630521</v>
       </c>
       <c r="C3" t="n">
-        <v>3.210526315789474</v>
+        <v>3.140697953161452</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1578947368421</v>
+        <v>10.93623672314376</v>
       </c>
       <c r="E3" t="n">
-        <v>43.86007511348301</v>
+        <v>43.34970928390789</v>
       </c>
       <c r="F3" t="n">
-        <v>41.59817451408241</v>
+        <v>41.12535439892765</v>
       </c>
       <c r="G3" t="n">
-        <v>12.1578947368421</v>
+        <v>11.92165345075503</v>
       </c>
       <c r="H3" t="n">
-        <v>9.789473684210526</v>
+        <v>9.608309861400002</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9242797126435862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5856052531994604</v>
       </c>
       <c r="K3" t="n">
-        <v>4.667802957276642</v>
+        <v>4.555358248659908</v>
       </c>
       <c r="L3" t="n">
-        <v>2.473684210526316</v>
+        <v>2.438476536814568</v>
       </c>
       <c r="M3" t="n">
-        <v>1.421052631578947</v>
+        <v>1.403645570738901</v>
       </c>
       <c r="N3" t="n">
-        <v>9.290072924151872</v>
+        <v>9.372275009640541</v>
       </c>
       <c r="O3" t="n">
-        <v>77.57894736842105</v>
+        <v>76.18205305401318</v>
       </c>
       <c r="P3" t="n">
-        <v>20.42105263157895</v>
+        <v>20.03490384510583</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.1578947368421</v>
+        <v>56.14714920890734</v>
       </c>
       <c r="R3" t="n">
-        <v>66.28872255960414</v>
+        <v>65.67357260336011</v>
       </c>
       <c r="S3" t="n">
-        <v>63.94776721816196</v>
+        <v>63.3409090916464</v>
       </c>
       <c r="T3" t="n">
-        <v>62.39473684210526</v>
+        <v>61.16687639398653</v>
       </c>
       <c r="U3" t="n">
-        <v>47.18421052631579</v>
+        <v>46.30127959389502</v>
       </c>
       <c r="V3" t="n">
-        <v>5.947368421052632</v>
+        <v>5.829050887919577</v>
       </c>
       <c r="W3" t="n">
-        <v>2.815789473684211</v>
+        <v>2.760658438636084</v>
       </c>
       <c r="X3" t="n">
-        <v>17.32161881247408</v>
+        <v>17.16546349261412</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.76315789473684</v>
+        <v>17.43541861792866</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.289473684210526</v>
+        <v>8.171686409444012</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.33260773144983</v>
+        <v>31.24002819566737</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.76315789473684</v>
+        <v>97.81811959896311</v>
       </c>
       <c r="AC3" t="n">
-        <v>29.65789473684211</v>
+        <v>28.95409644108173</v>
       </c>
       <c r="AD3" t="n">
-        <v>70.10526315789474</v>
+        <v>68.86402315788136</v>
       </c>
       <c r="AE3" t="n">
-        <v>65.84081477878846</v>
+        <v>65.30251144221495</v>
       </c>
       <c r="AF3" t="n">
-        <v>66.29435119850909</v>
+        <v>65.56629687315132</v>
       </c>
       <c r="AG3" t="n">
-        <v>67.07894736842105</v>
+        <v>65.79117613859749</v>
       </c>
       <c r="AH3" t="n">
-        <v>50.42105263157895</v>
+        <v>49.52266359897934</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.842105263157895</v>
+        <v>6.708004746024338</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.684210526315789</v>
+        <v>3.584143593051416</v>
       </c>
       <c r="AK3" t="n">
-        <v>20.25654491707123</v>
+        <v>19.92525358086478</v>
       </c>
       <c r="AL3" t="n">
-        <v>18.5</v>
+        <v>18.15556096481395</v>
       </c>
       <c r="AM3" t="n">
-        <v>8.842105263157896</v>
+        <v>8.682109977130404</v>
       </c>
       <c r="AN3" t="n">
-        <v>32.28406921295079</v>
+        <v>31.84960950287157</v>
       </c>
     </row>
     <row r="4">
@@ -890,121 +890,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.78947368421053</v>
+        <v>22.75815997716055</v>
       </c>
       <c r="C4" t="n">
-        <v>4.473684210526316</v>
+        <v>4.268021780432877</v>
       </c>
       <c r="D4" t="n">
-        <v>19.31578947368421</v>
+        <v>18.49013819672767</v>
       </c>
       <c r="E4" t="n">
-        <v>55.3640909090909</v>
+        <v>53.98322844439765</v>
       </c>
       <c r="F4" t="n">
-        <v>52.28281735808051</v>
+        <v>50.51176737270973</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>20.07939748605907</v>
       </c>
       <c r="H4" t="n">
-        <v>17.34210526315789</v>
+        <v>16.58559655629098</v>
       </c>
       <c r="I4" t="n">
-        <v>2.526315789473684</v>
+        <v>2.399180835380752</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>1.428700891235248</v>
       </c>
       <c r="K4" t="n">
-        <v>10.20832237937501</v>
+        <v>9.720047529456998</v>
       </c>
       <c r="L4" t="n">
-        <v>3.973684210526316</v>
+        <v>3.78164516776528</v>
       </c>
       <c r="M4" t="n">
-        <v>2.052631578947369</v>
+        <v>1.935356446213969</v>
       </c>
       <c r="N4" t="n">
-        <v>12.51111778572305</v>
+        <v>11.80065608196892</v>
       </c>
       <c r="O4" t="n">
-        <v>102.2894736842105</v>
+        <v>98.8990431139448</v>
       </c>
       <c r="P4" t="n">
-        <v>20.73684210526316</v>
+        <v>19.98930647061056</v>
       </c>
       <c r="Q4" t="n">
-        <v>81.55263157894737</v>
+        <v>78.90973664333424</v>
       </c>
       <c r="R4" t="n">
-        <v>73.80551642436511</v>
+        <v>71.79870072650439</v>
       </c>
       <c r="S4" t="n">
-        <v>74.12337056583766</v>
+        <v>72.23971731581183</v>
       </c>
       <c r="T4" t="n">
-        <v>88.63157894736842</v>
+        <v>85.79407392181928</v>
       </c>
       <c r="U4" t="n">
-        <v>71.94736842105263</v>
+        <v>69.69741256006049</v>
       </c>
       <c r="V4" t="n">
-        <v>6.842105263157895</v>
+        <v>6.57367329874972</v>
       </c>
       <c r="W4" t="n">
-        <v>3.447368421052631</v>
+        <v>3.279842276285141</v>
       </c>
       <c r="X4" t="n">
-        <v>18.96713292190266</v>
+        <v>18.00385351754227</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.65789473684211</v>
+        <v>16.03870469448468</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.736842105263158</v>
+        <v>7.408123614861689</v>
       </c>
       <c r="AA4" t="n">
-        <v>30.65049636766742</v>
+        <v>29.57120512564511</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.9210526315789</v>
+        <v>118.4716640820771</v>
       </c>
       <c r="AC4" t="n">
-        <v>29.47368421052632</v>
+        <v>28.22192909471696</v>
       </c>
       <c r="AD4" t="n">
-        <v>94.44736842105263</v>
+        <v>90.24973498736018</v>
       </c>
       <c r="AE4" t="n">
-        <v>71.99704350474087</v>
+        <v>69.9864686633582</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.6471673940095</v>
+        <v>72.30759175283009</v>
       </c>
       <c r="AG4" t="n">
-        <v>90.44736842105263</v>
+        <v>86.47563371513718</v>
       </c>
       <c r="AH4" t="n">
-        <v>72.81578947368421</v>
+        <v>69.63355394537818</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.289473684210526</v>
+        <v>8.821969820806668</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.605263157894737</v>
+        <v>5.316936155794318</v>
       </c>
       <c r="AK4" t="n">
-        <v>25.79021921061395</v>
+        <v>24.50269731567888</v>
       </c>
       <c r="AL4" t="n">
-        <v>18.26315789473684</v>
+        <v>17.42991194155889</v>
       </c>
       <c r="AM4" t="n">
-        <v>9.184210526315789</v>
+        <v>8.754167657383242</v>
       </c>
       <c r="AN4" t="n">
-        <v>31.51925090260617</v>
+        <v>30.27629459780395</v>
       </c>
     </row>
     <row r="5">
@@ -1014,121 +1014,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.86111111111111</v>
+        <v>17.31328867580875</v>
       </c>
       <c r="C5" t="n">
-        <v>3.583333333333333</v>
+        <v>3.446624814503255</v>
       </c>
       <c r="D5" t="n">
-        <v>14.27777777777778</v>
+        <v>13.86666386130549</v>
       </c>
       <c r="E5" t="n">
-        <v>50.81515723474057</v>
+        <v>49.81878157280467</v>
       </c>
       <c r="F5" t="n">
-        <v>46.91299032140699</v>
+        <v>45.87855325658418</v>
       </c>
       <c r="G5" t="n">
-        <v>15.36111111111111</v>
+        <v>14.90779404093295</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>12.14679171163789</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.665514148863828</v>
       </c>
       <c r="J5" t="n">
-        <v>1.055555555555556</v>
+        <v>1.003786709795077</v>
       </c>
       <c r="K5" t="n">
-        <v>6.963769841269841</v>
+        <v>6.635274475816622</v>
       </c>
       <c r="L5" t="n">
-        <v>3.027777777777778</v>
+        <v>2.901381095792405</v>
       </c>
       <c r="M5" t="n">
-        <v>1.666666666666667</v>
+        <v>1.60396110725102</v>
       </c>
       <c r="N5" t="n">
-        <v>10.10550347800348</v>
+        <v>9.762550937582409</v>
       </c>
       <c r="O5" t="n">
-        <v>94.69444444444444</v>
+        <v>91.88269225245652</v>
       </c>
       <c r="P5" t="n">
-        <v>18.66666666666667</v>
+        <v>17.99808077023203</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.02777777777777</v>
+        <v>73.88461148222449</v>
       </c>
       <c r="R5" t="n">
-        <v>72.94231558873226</v>
+        <v>71.88005486171394</v>
       </c>
       <c r="S5" t="n">
-        <v>73.33917279633947</v>
+        <v>72.28136389808543</v>
       </c>
       <c r="T5" t="n">
-        <v>81.13888888888889</v>
+        <v>78.74822390873091</v>
       </c>
       <c r="U5" t="n">
-        <v>67.16666666666667</v>
+        <v>65.26194228648809</v>
       </c>
       <c r="V5" t="n">
-        <v>6.444444444444445</v>
+        <v>6.197778368548109</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.145444536821154</v>
       </c>
       <c r="X5" t="n">
-        <v>17.10058189341522</v>
+        <v>16.80860272956033</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.80555555555556</v>
+        <v>15.22341725587524</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.75</v>
+        <v>7.482918636869745</v>
       </c>
       <c r="AA5" t="n">
-        <v>28.82262012062012</v>
+        <v>28.30862929376817</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.3333333333333</v>
+        <v>103.738027053278</v>
       </c>
       <c r="AC5" t="n">
-        <v>28.36111111111111</v>
+        <v>27.31163912968989</v>
       </c>
       <c r="AD5" t="n">
-        <v>78.97222222222223</v>
+        <v>76.42638792358812</v>
       </c>
       <c r="AE5" t="n">
-        <v>69.97229553933721</v>
+        <v>68.83280628590063</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.97342592284259</v>
+        <v>71.7755949420411</v>
       </c>
       <c r="AG5" t="n">
-        <v>72.11111111111111</v>
+        <v>69.8356768671453</v>
       </c>
       <c r="AH5" t="n">
-        <v>56.38888888888889</v>
+        <v>54.66416789627829</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.194444444444445</v>
+        <v>6.976985106788038</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3.888888888888889</v>
+        <v>3.779921217811707</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.31218471343471</v>
+        <v>18.12583320447203</v>
       </c>
       <c r="AL5" t="n">
-        <v>15.47222222222222</v>
+        <v>14.93615805318249</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.444444444444445</v>
+        <v>7.219197042366157</v>
       </c>
       <c r="AN5" t="n">
-        <v>30.51103964708132</v>
+        <v>29.92125870049438</v>
       </c>
     </row>
     <row r="6">
@@ -1138,121 +1138,121 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.38888888888889</v>
+        <v>17.69065414799485</v>
       </c>
       <c r="C6" t="n">
-        <v>3.5</v>
+        <v>3.291036990809096</v>
       </c>
       <c r="D6" t="n">
-        <v>14.88888888888889</v>
+        <v>14.39961715718575</v>
       </c>
       <c r="E6" t="n">
-        <v>49.37752060439561</v>
+        <v>48.52323533874714</v>
       </c>
       <c r="F6" t="n">
-        <v>46.31669922669923</v>
+        <v>45.67772324610054</v>
       </c>
       <c r="G6" t="n">
-        <v>15.5</v>
+        <v>14.93642499275016</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75</v>
+        <v>12.34963915168303</v>
       </c>
       <c r="I6" t="n">
-        <v>1.277777777777778</v>
+        <v>1.200261313217506</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6024001673942236</v>
       </c>
       <c r="K6" t="n">
-        <v>4.298941798941799</v>
+        <v>4.060414537010583</v>
       </c>
       <c r="L6" t="n">
-        <v>2.166666666666667</v>
+        <v>2.029669268458242</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8823908303144843</v>
       </c>
       <c r="N6" t="n">
-        <v>5.585917175417176</v>
+        <v>5.234563615903987</v>
       </c>
       <c r="O6" t="n">
-        <v>93.91666666666667</v>
+        <v>90.37661728890112</v>
       </c>
       <c r="P6" t="n">
-        <v>19.52777777777778</v>
+        <v>18.47419953629263</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.38888888888889</v>
+        <v>71.90241775260847</v>
       </c>
       <c r="R6" t="n">
-        <v>68.32206262718763</v>
+        <v>67.37605265102367</v>
       </c>
       <c r="S6" t="n">
-        <v>67.48338827838828</v>
+        <v>66.04650603646262</v>
       </c>
       <c r="T6" t="n">
-        <v>78.72222222222223</v>
+        <v>75.99150472750929</v>
       </c>
       <c r="U6" t="n">
-        <v>64.58333333333333</v>
+        <v>62.58081969756511</v>
       </c>
       <c r="V6" t="n">
-        <v>5.944444444444445</v>
+        <v>5.551726944994943</v>
       </c>
       <c r="W6" t="n">
-        <v>3.055555555555555</v>
+        <v>2.870929708728724</v>
       </c>
       <c r="X6" t="n">
-        <v>15.8168458994709</v>
+        <v>14.8959700397898</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.02777777777778</v>
+        <v>15.14389571625846</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.055555555555555</v>
+        <v>7.66847168972606</v>
       </c>
       <c r="AA6" t="n">
-        <v>31.41826429588929</v>
+        <v>31.12920485523972</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.6666666666667</v>
+        <v>111.58025428998</v>
       </c>
       <c r="AC6" t="n">
-        <v>31.11111111111111</v>
+        <v>29.64408553376758</v>
       </c>
       <c r="AD6" t="n">
-        <v>85.55555555555556</v>
+        <v>81.93616875621245</v>
       </c>
       <c r="AE6" t="n">
-        <v>67.50243457468457</v>
+        <v>66.03405973739379</v>
       </c>
       <c r="AF6" t="n">
-        <v>68.48507870370371</v>
+        <v>66.93951039771228</v>
       </c>
       <c r="AG6" t="n">
-        <v>78.66666666666667</v>
+        <v>75.56212288847425</v>
       </c>
       <c r="AH6" t="n">
-        <v>60.91666666666666</v>
+        <v>58.53417192212706</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.194444444444445</v>
+        <v>8.873870133497777</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.083333333333333</v>
+        <v>4.897245727921488</v>
       </c>
       <c r="AK6" t="n">
-        <v>22.79443487993488</v>
+        <v>22.51870377771627</v>
       </c>
       <c r="AL6" t="n">
-        <v>18.05555555555556</v>
+        <v>17.4120453135647</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.555555555555555</v>
+        <v>8.274708080253724</v>
       </c>
       <c r="AN6" t="n">
-        <v>31.4987731990232</v>
+        <v>30.98993570297703</v>
       </c>
     </row>
     <row r="7">
@@ -1262,121 +1262,121 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.57894736842105</v>
+        <v>17.6766387061932</v>
       </c>
       <c r="C7" t="n">
-        <v>4.210526315789473</v>
+        <v>4.008119246520345</v>
       </c>
       <c r="D7" t="n">
-        <v>14.36842105263158</v>
+        <v>13.66851945967285</v>
       </c>
       <c r="E7" t="n">
-        <v>48.31257670618854</v>
+        <v>46.26753591197575</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49472714639162</v>
+        <v>41.61771021627266</v>
       </c>
       <c r="G7" t="n">
-        <v>15.07894736842105</v>
+        <v>14.36524049308764</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1578947368421</v>
+        <v>11.58249572270408</v>
       </c>
       <c r="I7" t="n">
-        <v>1.921052631578947</v>
+        <v>1.841034093971801</v>
       </c>
       <c r="J7" t="n">
-        <v>1.210526315789474</v>
+        <v>1.158882571568058</v>
       </c>
       <c r="K7" t="n">
-        <v>7.319627433969539</v>
+        <v>7.056863267887542</v>
       </c>
       <c r="L7" t="n">
-        <v>3.315789473684211</v>
+        <v>3.159746132360045</v>
       </c>
       <c r="M7" t="n">
-        <v>1.736842105263158</v>
+        <v>1.655012861875784</v>
       </c>
       <c r="N7" t="n">
-        <v>10.54791893194525</v>
+        <v>10.12127729716251</v>
       </c>
       <c r="O7" t="n">
-        <v>95.36842105263158</v>
+        <v>91.08559641347405</v>
       </c>
       <c r="P7" t="n">
-        <v>19.21052631578947</v>
+        <v>18.32789253604562</v>
       </c>
       <c r="Q7" t="n">
-        <v>76.15789473684211</v>
+        <v>72.75770387742844</v>
       </c>
       <c r="R7" t="n">
-        <v>72.16281691809652</v>
+        <v>69.71125507691873</v>
       </c>
       <c r="S7" t="n">
-        <v>73.07970475467515</v>
+        <v>70.48181057874424</v>
       </c>
       <c r="T7" t="n">
-        <v>79.47368421052632</v>
+        <v>75.91539359302277</v>
       </c>
       <c r="U7" t="n">
-        <v>65.39473684210526</v>
+        <v>62.48066640770838</v>
       </c>
       <c r="V7" t="n">
-        <v>6.394736842105263</v>
+        <v>6.025427094891376</v>
       </c>
       <c r="W7" t="n">
-        <v>3.447368421052631</v>
+        <v>3.245937041697988</v>
       </c>
       <c r="X7" t="n">
-        <v>17.87147281665703</v>
+        <v>16.84893762132593</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.63157894736842</v>
+        <v>14.79594793083408</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.342105263157896</v>
+        <v>7.91188526640682</v>
       </c>
       <c r="AA7" t="n">
-        <v>32.64219774998394</v>
+        <v>31.21139366936779</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.9736842105263</v>
+        <v>119.1534976694762</v>
       </c>
       <c r="AC7" t="n">
-        <v>30.5</v>
+        <v>29.00183025978855</v>
       </c>
       <c r="AD7" t="n">
-        <v>94.47368421052632</v>
+        <v>90.15166740968763</v>
       </c>
       <c r="AE7" t="n">
-        <v>71.82156802262065</v>
+        <v>69.46179749391739</v>
       </c>
       <c r="AF7" t="n">
-        <v>73.54020133667503</v>
+        <v>70.98224918728029</v>
       </c>
       <c r="AG7" t="n">
-        <v>82.36842105263158</v>
+        <v>78.55054870346187</v>
       </c>
       <c r="AH7" t="n">
-        <v>66.23684210526316</v>
+        <v>63.21412786933215</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.157894736842104</v>
+        <v>8.686427617045508</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.921052631578948</v>
+        <v>4.673613508246891</v>
       </c>
       <c r="AK7" t="n">
-        <v>22.77283870332884</v>
+        <v>21.84330065551743</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.07894736842105</v>
+        <v>18.09927417978575</v>
       </c>
       <c r="AM7" t="n">
-        <v>10.21052631578947</v>
+        <v>9.690524946260044</v>
       </c>
       <c r="AN7" t="n">
-        <v>36.24011710767303</v>
+        <v>34.88394688000852</v>
       </c>
     </row>
     <row r="8">
@@ -1386,121 +1386,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.21052631578947</v>
+        <v>16.36553044029763</v>
       </c>
       <c r="C8" t="n">
-        <v>3.605263157894737</v>
+        <v>3.427576027033513</v>
       </c>
       <c r="D8" t="n">
-        <v>13.60526315789474</v>
+        <v>12.93795441326412</v>
       </c>
       <c r="E8" t="n">
-        <v>49.96943696654223</v>
+        <v>48.09788337921533</v>
       </c>
       <c r="F8" t="n">
-        <v>44.48810602555339</v>
+        <v>42.93150580651595</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3421052631579</v>
+        <v>13.63792621173332</v>
       </c>
       <c r="H8" t="n">
-        <v>11.57894736842105</v>
+        <v>11.02466942013299</v>
       </c>
       <c r="I8" t="n">
-        <v>1.789473684210526</v>
+        <v>1.672722094242557</v>
       </c>
       <c r="J8" t="n">
-        <v>1.026315789473684</v>
+        <v>0.9611445255345529</v>
       </c>
       <c r="K8" t="n">
-        <v>7.141980826191352</v>
+        <v>6.686710405083309</v>
       </c>
       <c r="L8" t="n">
-        <v>2.868421052631579</v>
+        <v>2.691158936512944</v>
       </c>
       <c r="M8" t="n">
-        <v>1.342105263157895</v>
+        <v>1.262597381255829</v>
       </c>
       <c r="N8" t="n">
-        <v>8.516496529786004</v>
+        <v>8.019033493675451</v>
       </c>
       <c r="O8" t="n">
-        <v>90.84210526315789</v>
+        <v>86.47940395269076</v>
       </c>
       <c r="P8" t="n">
-        <v>18.68421052631579</v>
+        <v>17.77633125201909</v>
       </c>
       <c r="Q8" t="n">
-        <v>72.15789473684211</v>
+        <v>68.70307270067167</v>
       </c>
       <c r="R8" t="n">
-        <v>72.60232507843034</v>
+        <v>70.25227125226647</v>
       </c>
       <c r="S8" t="n">
-        <v>71.77237044534412</v>
+        <v>69.08643624741396</v>
       </c>
       <c r="T8" t="n">
-        <v>74.92105263157895</v>
+        <v>71.38924450787508</v>
       </c>
       <c r="U8" t="n">
-        <v>61.23684210526316</v>
+        <v>58.36083683979436</v>
       </c>
       <c r="V8" t="n">
-        <v>5.763157894736842</v>
+        <v>5.470855838333485</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2.853127151154708</v>
       </c>
       <c r="X8" t="n">
-        <v>16.28732236623026</v>
+        <v>15.76585544746328</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.76315789473684</v>
+        <v>13.05548962941689</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.710526315789473</v>
+        <v>6.369578367805889</v>
       </c>
       <c r="AA8" t="n">
-        <v>28.27742029461766</v>
+        <v>27.11358317918782</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.6842105263158</v>
+        <v>113.3396235616286</v>
       </c>
       <c r="AC8" t="n">
-        <v>32.28947368421053</v>
+        <v>30.58447194797705</v>
       </c>
       <c r="AD8" t="n">
-        <v>87.39473684210526</v>
+        <v>82.75515161365159</v>
       </c>
       <c r="AE8" t="n">
-        <v>66.97948010761168</v>
+        <v>64.85898664584644</v>
       </c>
       <c r="AF8" t="n">
-        <v>68.4265810286205</v>
+        <v>66.62553287204915</v>
       </c>
       <c r="AG8" t="n">
-        <v>75.76315789473684</v>
+        <v>71.66354544775817</v>
       </c>
       <c r="AH8" t="n">
-        <v>58.97368421052632</v>
+        <v>55.81355793746374</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.631578947368421</v>
+        <v>8.197239159856704</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.868421052631579</v>
+        <v>4.633309848843711</v>
       </c>
       <c r="AK8" t="n">
-        <v>23.8450999789684</v>
+        <v>22.93158170297162</v>
       </c>
       <c r="AL8" t="n">
-        <v>16.07894736842105</v>
+        <v>15.16182744409013</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.078947368421053</v>
+        <v>7.62552090187094</v>
       </c>
       <c r="AN8" t="n">
-        <v>29.03023746867168</v>
+        <v>27.76292337135188</v>
       </c>
     </row>
     <row r="9">
@@ -1510,121 +1510,121 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.58333333333333</v>
+        <v>16.96481753582974</v>
       </c>
       <c r="C9" t="n">
-        <v>3.333333333333333</v>
+        <v>3.1776091974884</v>
       </c>
       <c r="D9" t="n">
-        <v>14.25</v>
+        <v>13.78720833834134</v>
       </c>
       <c r="E9" t="n">
-        <v>46.65122012362637</v>
+        <v>45.53759745090429</v>
       </c>
       <c r="F9" t="n">
-        <v>43.17042090201465</v>
+        <v>42.21743005313715</v>
       </c>
       <c r="G9" t="n">
-        <v>13.875</v>
+        <v>13.4613896598395</v>
       </c>
       <c r="H9" t="n">
-        <v>11.54166666666667</v>
+        <v>11.24247467874589</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9893092848932264</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6005517763154823</v>
       </c>
       <c r="K9" t="n">
-        <v>4.062118437118437</v>
+        <v>4.503095661929195</v>
       </c>
       <c r="L9" t="n">
-        <v>2.583333333333333</v>
+        <v>2.537890999151071</v>
       </c>
       <c r="M9" t="n">
-        <v>1.458333333333333</v>
+        <v>1.452136872352977</v>
       </c>
       <c r="N9" t="n">
-        <v>8.965600389194138</v>
+        <v>8.975423112845307</v>
       </c>
       <c r="O9" t="n">
-        <v>89.41666666666667</v>
+        <v>85.18571043899587</v>
       </c>
       <c r="P9" t="n">
-        <v>19.91666666666667</v>
+        <v>18.86675201319139</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.5</v>
+        <v>66.31895842580448</v>
       </c>
       <c r="R9" t="n">
-        <v>67.95888675213675</v>
+        <v>65.82178011685285</v>
       </c>
       <c r="S9" t="n">
-        <v>69.10037980769231</v>
+        <v>66.9922929044394</v>
       </c>
       <c r="T9" t="n">
-        <v>72.5</v>
+        <v>69.08425165729618</v>
       </c>
       <c r="U9" t="n">
-        <v>58.75</v>
+        <v>56.10481233262706</v>
       </c>
       <c r="V9" t="n">
-        <v>5.916666666666667</v>
+        <v>5.591443523431761</v>
       </c>
       <c r="W9" t="n">
-        <v>3.375</v>
+        <v>3.186530913494789</v>
       </c>
       <c r="X9" t="n">
-        <v>17.92355784493285</v>
+        <v>17.12029421405072</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.41666666666667</v>
+        <v>13.62879098631295</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.541666666666667</v>
+        <v>7.135166846111168</v>
       </c>
       <c r="AA9" t="n">
-        <v>30.50917612942613</v>
+        <v>29.44448686639759</v>
       </c>
       <c r="AB9" t="n">
-        <v>121.75</v>
+        <v>116.8066656059019</v>
       </c>
       <c r="AC9" t="n">
-        <v>33.45833333333334</v>
+        <v>32.13606828910684</v>
       </c>
       <c r="AD9" t="n">
-        <v>88.29166666666667</v>
+        <v>84.67059731679505</v>
       </c>
       <c r="AE9" t="n">
-        <v>68.47422638125762</v>
+        <v>66.42450132842434</v>
       </c>
       <c r="AF9" t="n">
-        <v>71.18850946275946</v>
+        <v>69.21792205654432</v>
       </c>
       <c r="AG9" t="n">
-        <v>76</v>
+        <v>72.99337281411715</v>
       </c>
       <c r="AH9" t="n">
-        <v>59.375</v>
+        <v>57.00951854649204</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>7.722408775931791</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.833333333333333</v>
+        <v>3.616513595194894</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.38116502594628</v>
+        <v>16.39769276759867</v>
       </c>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>14.2690513855833</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.458333333333333</v>
+        <v>7.009110157831941</v>
       </c>
       <c r="AN9" t="n">
-        <v>30.41107058913309</v>
+        <v>28.92465362135869</v>
       </c>
     </row>
     <row r="10">
@@ -1634,121 +1634,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.25714285714286</v>
+        <v>14.69104865697746</v>
       </c>
       <c r="C10" t="n">
-        <v>3.485714285714286</v>
+        <v>3.345570840335869</v>
       </c>
       <c r="D10" t="n">
-        <v>11.77142857142857</v>
+        <v>11.3454778166416</v>
       </c>
       <c r="E10" t="n">
-        <v>44.05387825349253</v>
+        <v>43.15980036677967</v>
       </c>
       <c r="F10" t="n">
-        <v>37.45310160950161</v>
+        <v>36.59426292538839</v>
       </c>
       <c r="G10" t="n">
-        <v>12.05714285714286</v>
+        <v>11.61274819390905</v>
       </c>
       <c r="H10" t="n">
-        <v>9.457142857142857</v>
+        <v>9.105708333795565</v>
       </c>
       <c r="I10" t="n">
-        <v>1.171428571428571</v>
+        <v>1.124820729882877</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6388839708073031</v>
       </c>
       <c r="K10" t="n">
-        <v>4.208624106052678</v>
+        <v>4.198027037554691</v>
       </c>
       <c r="L10" t="n">
-        <v>2.485714285714286</v>
+        <v>2.376611449552886</v>
       </c>
       <c r="M10" t="n">
-        <v>1.2</v>
+        <v>1.157688248530637</v>
       </c>
       <c r="N10" t="n">
-        <v>7.125435723007151</v>
+        <v>7.007346291585359</v>
       </c>
       <c r="O10" t="n">
-        <v>85.8</v>
+        <v>83.31841821607721</v>
       </c>
       <c r="P10" t="n">
-        <v>18.88571428571429</v>
+        <v>18.37586528914189</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.91428571428571</v>
+        <v>64.94255292693531</v>
       </c>
       <c r="R10" t="n">
-        <v>69.81256076780363</v>
+        <v>68.22683507895383</v>
       </c>
       <c r="S10" t="n">
-        <v>69.80721572237287</v>
+        <v>68.20099892285242</v>
       </c>
       <c r="T10" t="n">
-        <v>70.34285714285714</v>
+        <v>68.38642129966222</v>
       </c>
       <c r="U10" t="n">
-        <v>56.77142857142857</v>
+        <v>55.17287341130149</v>
       </c>
       <c r="V10" t="n">
-        <v>4.371428571428571</v>
+        <v>4.173845583938286</v>
       </c>
       <c r="W10" t="n">
-        <v>2.171428571428571</v>
+        <v>2.058592226850599</v>
       </c>
       <c r="X10" t="n">
-        <v>12.89090214547358</v>
+        <v>12.23433408509346</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.22857142857143</v>
+        <v>12.73518897048659</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.4</v>
+        <v>6.156406243903709</v>
       </c>
       <c r="AA10" t="n">
-        <v>29.78331644863073</v>
+        <v>29.09349128590032</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.2</v>
+        <v>112.122782082962</v>
       </c>
       <c r="AC10" t="n">
-        <v>34.4</v>
+        <v>33.36636109440304</v>
       </c>
       <c r="AD10" t="n">
-        <v>81.8</v>
+        <v>78.75642098855899</v>
       </c>
       <c r="AE10" t="n">
-        <v>63.95889794015508</v>
+        <v>62.30788874421224</v>
       </c>
       <c r="AF10" t="n">
-        <v>66.24117682634825</v>
+        <v>64.77121404253775</v>
       </c>
       <c r="AG10" t="n">
-        <v>74.94285714285714</v>
+        <v>72.28504600379124</v>
       </c>
       <c r="AH10" t="n">
-        <v>56.11428571428571</v>
+        <v>54.06717515891595</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.314285714285714</v>
+        <v>6.975656709461317</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.571428571428572</v>
+        <v>3.41784078247727</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.19533855033855</v>
+        <v>17.73361697697374</v>
       </c>
       <c r="AL10" t="n">
-        <v>18.17142857142857</v>
+        <v>17.45453363696333</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.457142857142857</v>
+        <v>8.110785324022</v>
       </c>
       <c r="AN10" t="n">
-        <v>28.84227097347097</v>
+        <v>27.89717143185874</v>
       </c>
     </row>
     <row r="11">
@@ -1758,121 +1758,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>15.3281308607605</v>
       </c>
       <c r="C11" t="n">
-        <v>2.942857142857143</v>
+        <v>2.807465580446539</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05714285714286</v>
+        <v>12.52066528031396</v>
       </c>
       <c r="E11" t="n">
-        <v>50.58772012273441</v>
+        <v>48.74215340293917</v>
       </c>
       <c r="F11" t="n">
-        <v>45.63405838447267</v>
+        <v>43.8354963942834</v>
       </c>
       <c r="G11" t="n">
-        <v>12.88571428571429</v>
+        <v>12.34291884975213</v>
       </c>
       <c r="H11" t="n">
-        <v>10.77142857142857</v>
+        <v>10.32918925894096</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.514947848148667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.858964402043215</v>
       </c>
       <c r="K11" t="n">
-        <v>5.274470434327577</v>
+        <v>4.944229359648741</v>
       </c>
       <c r="L11" t="n">
-        <v>2.514285714285714</v>
+        <v>2.391933078123962</v>
       </c>
       <c r="M11" t="n">
-        <v>1.428571428571429</v>
+        <v>1.35302028114197</v>
       </c>
       <c r="N11" t="n">
-        <v>8.814756671899529</v>
+        <v>8.371861198521225</v>
       </c>
       <c r="O11" t="n">
-        <v>86.59999999999999</v>
+        <v>83.58962351126009</v>
       </c>
       <c r="P11" t="n">
-        <v>20.68571428571429</v>
+        <v>19.85138234216787</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.91428571428571</v>
+        <v>63.73824116909222</v>
       </c>
       <c r="R11" t="n">
-        <v>67.46282431378145</v>
+        <v>65.36450100877227</v>
       </c>
       <c r="S11" t="n">
-        <v>66.84314445554446</v>
+        <v>64.82078866231775</v>
       </c>
       <c r="T11" t="n">
-        <v>68.42857142857143</v>
+        <v>66.08951352994464</v>
       </c>
       <c r="U11" t="n">
-        <v>53.94285714285714</v>
+        <v>52.20052691194528</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>5.809334796126017</v>
       </c>
       <c r="W11" t="n">
-        <v>2.971428571428572</v>
+        <v>2.905102417303563</v>
       </c>
       <c r="X11" t="n">
-        <v>16.67410479996194</v>
+        <v>16.55202897402063</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.02857142857143</v>
+        <v>13.5319270623441</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.428571428571429</v>
+        <v>6.24692712540474</v>
       </c>
       <c r="AA11" t="n">
-        <v>26.31263093573094</v>
+        <v>25.81042737637703</v>
       </c>
       <c r="AB11" t="n">
-        <v>120.0857142857143</v>
+        <v>115.3715248015184</v>
       </c>
       <c r="AC11" t="n">
-        <v>31.82857142857143</v>
+        <v>30.55666794909486</v>
       </c>
       <c r="AD11" t="n">
-        <v>88.25714285714285</v>
+        <v>84.81485685242353</v>
       </c>
       <c r="AE11" t="n">
-        <v>69.06532177346463</v>
+        <v>67.03631475329045</v>
       </c>
       <c r="AF11" t="n">
-        <v>70.63126505875077</v>
+        <v>68.27156380639212</v>
       </c>
       <c r="AG11" t="n">
-        <v>79.02857142857142</v>
+        <v>76.0153800440454</v>
       </c>
       <c r="AH11" t="n">
-        <v>61.94285714285714</v>
+        <v>59.5207946738859</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.6</v>
+        <v>8.219766510622115</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.542857142857143</v>
+        <v>4.308228262097574</v>
       </c>
       <c r="AK11" t="n">
-        <v>22.59771058465344</v>
+        <v>21.45081535483823</v>
       </c>
       <c r="AL11" t="n">
-        <v>17.34285714285714</v>
+        <v>16.75284010540112</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.142857142857142</v>
+        <v>7.827447192101293</v>
       </c>
       <c r="AN11" t="n">
-        <v>29.7947419627991</v>
+        <v>28.66780899446062</v>
       </c>
     </row>
     <row r="12">
@@ -1882,121 +1882,121 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.70588235294118</v>
+        <v>13.97923663452209</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3.812930515452838</v>
       </c>
       <c r="D12" t="n">
-        <v>10.70588235294118</v>
+        <v>10.16630611906925</v>
       </c>
       <c r="E12" t="n">
-        <v>42.80124850639557</v>
+        <v>40.7560077103464</v>
       </c>
       <c r="F12" t="n">
-        <v>39.43773776713482</v>
+        <v>37.65165392896905</v>
       </c>
       <c r="G12" t="n">
-        <v>12.20588235294118</v>
+        <v>11.60039252544207</v>
       </c>
       <c r="H12" t="n">
-        <v>9.058823529411764</v>
+        <v>8.613005845597547</v>
       </c>
       <c r="I12" t="n">
-        <v>1.617647058823529</v>
+        <v>1.535536293102836</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8130339479959224</v>
       </c>
       <c r="K12" t="n">
-        <v>6.007913654972478</v>
+        <v>5.766456558543575</v>
       </c>
       <c r="L12" t="n">
-        <v>2.705882352941177</v>
+        <v>2.579232603686354</v>
       </c>
       <c r="M12" t="n">
-        <v>1.235294117647059</v>
+        <v>1.186476347592796</v>
       </c>
       <c r="N12" t="n">
-        <v>8.141449432920021</v>
+        <v>7.873809854846473</v>
       </c>
       <c r="O12" t="n">
-        <v>74.5</v>
+        <v>71.01561559702579</v>
       </c>
       <c r="P12" t="n">
-        <v>18.52941176470588</v>
+        <v>17.64268380986872</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.97058823529412</v>
+        <v>53.37293178715705</v>
       </c>
       <c r="R12" t="n">
-        <v>66.02102860864626</v>
+        <v>63.08925492404941</v>
       </c>
       <c r="S12" t="n">
-        <v>65.36124269358093</v>
+        <v>62.44458438402722</v>
       </c>
       <c r="T12" t="n">
-        <v>59.3235294117647</v>
+        <v>56.54960456911451</v>
       </c>
       <c r="U12" t="n">
-        <v>46.26470588235294</v>
+        <v>44.11823454575636</v>
       </c>
       <c r="V12" t="n">
-        <v>4.735294117647059</v>
+        <v>4.514667215464466</v>
       </c>
       <c r="W12" t="n">
-        <v>2.235294117647059</v>
+        <v>2.145324180456512</v>
       </c>
       <c r="X12" t="n">
-        <v>12.59318642142172</v>
+        <v>12.11282430390409</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.73529411764706</v>
+        <v>11.15206479396653</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.617647058823529</v>
+        <v>5.347910592232108</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.45699733110027</v>
+        <v>23.44584627044557</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.4117647058823</v>
+        <v>95.49673473966499</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.91176470588235</v>
+        <v>28.42179308122914</v>
       </c>
       <c r="AD12" t="n">
-        <v>70.5</v>
+        <v>67.07494165843585</v>
       </c>
       <c r="AE12" t="n">
-        <v>67.15869234197176</v>
+        <v>64.1510175570194</v>
       </c>
       <c r="AF12" t="n">
-        <v>68.00010246616129</v>
+        <v>64.85659945167386</v>
       </c>
       <c r="AG12" t="n">
-        <v>63.11764705882353</v>
+        <v>60.09391484240266</v>
       </c>
       <c r="AH12" t="n">
-        <v>46.47058823529412</v>
+        <v>44.26028821122707</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.617647058823529</v>
+        <v>6.304475189903406</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.382352941176471</v>
+        <v>3.217091735561892</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.89425205676676</v>
+        <v>17.97674630636103</v>
       </c>
       <c r="AL12" t="n">
-        <v>16.61764705882353</v>
+        <v>15.78268431045799</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.705882352941177</v>
+        <v>7.323645424066192</v>
       </c>
       <c r="AN12" t="n">
-        <v>30.93813300425065</v>
+        <v>29.49595163120384</v>
       </c>
     </row>
     <row r="13">
@@ -2006,121 +2006,121 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.52777777777778</v>
+        <v>14.85345876852156</v>
       </c>
       <c r="C13" t="n">
-        <v>3.833333333333333</v>
+        <v>3.656159914373765</v>
       </c>
       <c r="D13" t="n">
-        <v>11.69444444444444</v>
+        <v>11.19729885414779</v>
       </c>
       <c r="E13" t="n">
-        <v>45.62518643239477</v>
+        <v>44.11620962312067</v>
       </c>
       <c r="F13" t="n">
-        <v>41.88830714039047</v>
+        <v>40.56243175918797</v>
       </c>
       <c r="G13" t="n">
-        <v>12.91666666666667</v>
+        <v>12.37558413616537</v>
       </c>
       <c r="H13" t="n">
-        <v>9.916666666666666</v>
+        <v>9.512433759448006</v>
       </c>
       <c r="I13" t="n">
-        <v>1.638888888888889</v>
+        <v>1.548640622645488</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8141351212492267</v>
       </c>
       <c r="K13" t="n">
-        <v>5.851132478632478</v>
+        <v>5.530115316003487</v>
       </c>
       <c r="L13" t="n">
-        <v>2.777777777777778</v>
+        <v>2.649762413433432</v>
       </c>
       <c r="M13" t="n">
-        <v>1.166666666666667</v>
+        <v>1.119983967892213</v>
       </c>
       <c r="N13" t="n">
-        <v>6.954798281964949</v>
+        <v>6.75280524710749</v>
       </c>
       <c r="O13" t="n">
-        <v>81.41666666666667</v>
+        <v>78.13218262023491</v>
       </c>
       <c r="P13" t="n">
-        <v>20.19444444444444</v>
+        <v>19.29515796486013</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.22222222222222</v>
+        <v>58.83702465537479</v>
       </c>
       <c r="R13" t="n">
-        <v>68.43668804189637</v>
+        <v>66.23750328625175</v>
       </c>
       <c r="S13" t="n">
-        <v>68.97209121434122</v>
+        <v>66.7382938998781</v>
       </c>
       <c r="T13" t="n">
-        <v>66.80555555555556</v>
+        <v>64.1419707723925</v>
       </c>
       <c r="U13" t="n">
-        <v>51.91666666666666</v>
+        <v>49.88286350076933</v>
       </c>
       <c r="V13" t="n">
-        <v>5.361111111111111</v>
+        <v>5.103698277584169</v>
       </c>
       <c r="W13" t="n">
-        <v>2.444444444444445</v>
+        <v>2.339441432866868</v>
       </c>
       <c r="X13" t="n">
-        <v>14.04730974889308</v>
+        <v>13.60468791740218</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.05555555555556</v>
+        <v>14.4148436352268</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.083333333333333</v>
+        <v>6.78669397281808</v>
       </c>
       <c r="AA13" t="n">
-        <v>29.01021299842133</v>
+        <v>28.1520702116596</v>
       </c>
       <c r="AB13" t="n">
-        <v>111.6111111111111</v>
+        <v>106.9142713501164</v>
       </c>
       <c r="AC13" t="n">
-        <v>32.58333333333334</v>
+        <v>31.26098395435612</v>
       </c>
       <c r="AD13" t="n">
-        <v>79.02777777777777</v>
+        <v>75.65328739576024</v>
       </c>
       <c r="AE13" t="n">
-        <v>65.23249981191648</v>
+        <v>62.79706020851042</v>
       </c>
       <c r="AF13" t="n">
-        <v>67.47213556505224</v>
+        <v>65.1099482166578</v>
       </c>
       <c r="AG13" t="n">
-        <v>72.55555555555556</v>
+        <v>69.44251793239852</v>
       </c>
       <c r="AH13" t="n">
-        <v>55.11111111111111</v>
+        <v>52.72918267818524</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.25</v>
+        <v>6.906435812078462</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3.277777777777778</v>
+        <v>3.132099393244749</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.30853636332803</v>
+        <v>16.60899057570892</v>
       </c>
       <c r="AL13" t="n">
-        <v>15.88888888888889</v>
+        <v>15.15012473035076</v>
       </c>
       <c r="AM13" t="n">
-        <v>7.305555555555555</v>
+        <v>6.962303847441522</v>
       </c>
       <c r="AN13" t="n">
-        <v>30.872337005587</v>
+        <v>29.67424835062988</v>
       </c>
     </row>
     <row r="14">
@@ -2130,121 +2130,121 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.34615384615385</v>
+        <v>14.64555327868944</v>
       </c>
       <c r="C14" t="n">
-        <v>3.076923076923077</v>
+        <v>3.040648297476291</v>
       </c>
       <c r="D14" t="n">
-        <v>11.26923076923077</v>
+        <v>11.60490498121315</v>
       </c>
       <c r="E14" t="n">
-        <v>44.8761241707011</v>
+        <v>49.04139873292924</v>
       </c>
       <c r="F14" t="n">
-        <v>40.79489142908373</v>
+        <v>43.91861039009556</v>
       </c>
       <c r="G14" t="n">
-        <v>11.19230769230769</v>
+        <v>11.49181015260686</v>
       </c>
       <c r="H14" t="n">
-        <v>9.115384615384615</v>
+        <v>9.423327625324927</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.4829096488668</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5689102415298609</v>
       </c>
       <c r="K14" t="n">
-        <v>3.986590332744179</v>
+        <v>4.009249883432138</v>
       </c>
       <c r="L14" t="n">
-        <v>2.653846153846154</v>
+        <v>2.6723886811518</v>
       </c>
       <c r="M14" t="n">
-        <v>1.307692307692308</v>
+        <v>1.317608767042793</v>
       </c>
       <c r="N14" t="n">
-        <v>8.816119777658241</v>
+        <v>9.136181158132421</v>
       </c>
       <c r="O14" t="n">
-        <v>77.07692307692308</v>
+        <v>81.60507286262894</v>
       </c>
       <c r="P14" t="n">
-        <v>16.57692307692308</v>
+        <v>17.50231452912452</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.5</v>
+        <v>64.10275833350443</v>
       </c>
       <c r="R14" t="n">
-        <v>71.52286824073363</v>
+        <v>81.19524844424498</v>
       </c>
       <c r="S14" t="n">
-        <v>70.71778125080048</v>
+        <v>80.44985770118041</v>
       </c>
       <c r="T14" t="n">
-        <v>60.23076923076923</v>
+        <v>63.84952299004522</v>
       </c>
       <c r="U14" t="n">
-        <v>48.53846153846154</v>
+        <v>51.57156768142003</v>
       </c>
       <c r="V14" t="n">
-        <v>3.538461538461538</v>
+        <v>3.558480335384085</v>
       </c>
       <c r="W14" t="n">
-        <v>1.653846153846154</v>
+        <v>1.649589213809967</v>
       </c>
       <c r="X14" t="n">
-        <v>10.38063583852045</v>
+        <v>11.04955721990763</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.88461538461539</v>
+        <v>13.3740847878556</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.538461538461538</v>
+        <v>6.864874256789134</v>
       </c>
       <c r="AA14" t="n">
-        <v>31.98001843028766</v>
+        <v>36.42220136471755</v>
       </c>
       <c r="AB14" t="n">
-        <v>99.34615384615384</v>
+        <v>103.0691820818958</v>
       </c>
       <c r="AC14" t="n">
-        <v>26.65384615384615</v>
+        <v>27.72194873773205</v>
       </c>
       <c r="AD14" t="n">
-        <v>72.69230769230769</v>
+        <v>75.34723334416377</v>
       </c>
       <c r="AE14" t="n">
-        <v>68.46994383501114</v>
+        <v>77.28438484741231</v>
       </c>
       <c r="AF14" t="n">
-        <v>70.37579155459925</v>
+        <v>79.05031600778267</v>
       </c>
       <c r="AG14" t="n">
-        <v>61.30769230769231</v>
+        <v>63.89805917286302</v>
       </c>
       <c r="AH14" t="n">
-        <v>48.34615384615385</v>
+        <v>50.36132558369771</v>
       </c>
       <c r="AI14" t="n">
-        <v>5.576923076923077</v>
+        <v>5.657304976056472</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.076923076923077</v>
+        <v>3.073684147200285</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.26005404851559</v>
+        <v>17.24276396888647</v>
       </c>
       <c r="AL14" t="n">
-        <v>13.76923076923077</v>
+        <v>14.14998484865068</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.230769230769231</v>
+        <v>7.408592692752195</v>
       </c>
       <c r="AN14" t="n">
-        <v>31.3752353671969</v>
+        <v>33.87376505326314</v>
       </c>
     </row>
     <row r="15">
@@ -2254,121 +2254,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.54054054054054</v>
+        <v>18.88279809212263</v>
       </c>
       <c r="C15" t="n">
-        <v>4.081081081081081</v>
+        <v>3.910874836704027</v>
       </c>
       <c r="D15" t="n">
-        <v>15.45945945945946</v>
+        <v>14.9719232554186</v>
       </c>
       <c r="E15" t="n">
-        <v>50.01596059796059</v>
+        <v>49.95944009372553</v>
       </c>
       <c r="F15" t="n">
-        <v>46.74466767916768</v>
+        <v>46.18617325593083</v>
       </c>
       <c r="G15" t="n">
-        <v>16.56756756756757</v>
+        <v>15.99573163917673</v>
       </c>
       <c r="H15" t="n">
-        <v>13.35135135135135</v>
+        <v>12.90998678313631</v>
       </c>
       <c r="I15" t="n">
-        <v>1.621621621621622</v>
+        <v>1.556502204811441</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.954745087033036</v>
       </c>
       <c r="K15" t="n">
-        <v>6.104706104706105</v>
+        <v>5.85432685979562</v>
       </c>
       <c r="L15" t="n">
-        <v>2.864864864864865</v>
+        <v>2.743374517423797</v>
       </c>
       <c r="M15" t="n">
-        <v>1.486486486486486</v>
+        <v>1.420300797303592</v>
       </c>
       <c r="N15" t="n">
-        <v>9.967464967464968</v>
+        <v>9.537826722397339</v>
       </c>
       <c r="O15" t="n">
-        <v>96.45945945945945</v>
+        <v>93.73749248589787</v>
       </c>
       <c r="P15" t="n">
-        <v>19.45945945945946</v>
+        <v>18.90583269173788</v>
       </c>
       <c r="Q15" t="n">
-        <v>77</v>
+        <v>74.83165979415998</v>
       </c>
       <c r="R15" t="n">
-        <v>72.98753728703728</v>
+        <v>72.27407356419398</v>
       </c>
       <c r="S15" t="n">
-        <v>74.22440756090757</v>
+        <v>73.45397586389647</v>
       </c>
       <c r="T15" t="n">
-        <v>80.24324324324324</v>
+        <v>78.01004265469429</v>
       </c>
       <c r="U15" t="n">
-        <v>66.45945945945945</v>
+        <v>64.62430652348286</v>
       </c>
       <c r="V15" t="n">
-        <v>5.837837837837838</v>
+        <v>5.662165802182868</v>
       </c>
       <c r="W15" t="n">
-        <v>3.54054054054054</v>
+        <v>3.447789514642229</v>
       </c>
       <c r="X15" t="n">
-        <v>17.81610539460539</v>
+        <v>17.84346896683171</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.78378378378378</v>
+        <v>14.30581982226358</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.216216216216216</v>
+        <v>7.996509919765154</v>
       </c>
       <c r="AA15" t="n">
-        <v>31.3767195057195</v>
+        <v>31.38641387907116</v>
       </c>
       <c r="AB15" t="n">
-        <v>125.5405405405405</v>
+        <v>121.380398610189</v>
       </c>
       <c r="AC15" t="n">
-        <v>31.94594594594595</v>
+        <v>30.95732266051115</v>
       </c>
       <c r="AD15" t="n">
-        <v>93.5945945945946</v>
+        <v>90.42307594967787</v>
       </c>
       <c r="AE15" t="n">
-        <v>70.05260366660366</v>
+        <v>69.23092412206947</v>
       </c>
       <c r="AF15" t="n">
-        <v>73.16830991980991</v>
+        <v>72.70217562564625</v>
       </c>
       <c r="AG15" t="n">
-        <v>81.37837837837837</v>
+        <v>78.67156757567868</v>
       </c>
       <c r="AH15" t="n">
-        <v>64.86486486486487</v>
+        <v>62.70640436299025</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.378378378378378</v>
+        <v>7.093905439252747</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.972972972972973</v>
+        <v>3.826223993521194</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.8083548973549</v>
+        <v>16.25445947655175</v>
       </c>
       <c r="AL15" t="n">
-        <v>14.97297297297297</v>
+        <v>14.48303187504026</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.081081081081081</v>
+        <v>6.874719302221772</v>
       </c>
       <c r="AN15" t="n">
-        <v>28.65079089379089</v>
+        <v>28.91036175690352</v>
       </c>
     </row>
     <row r="16">
@@ -2378,121 +2378,121 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.55555555555556</v>
+        <v>14.81238114364698</v>
       </c>
       <c r="C16" t="n">
-        <v>3.888888888888889</v>
+        <v>3.703413419636287</v>
       </c>
       <c r="D16" t="n">
-        <v>11.66666666666667</v>
+        <v>11.10896772401069</v>
       </c>
       <c r="E16" t="n">
-        <v>44.70973313723314</v>
+        <v>43.0627211499372</v>
       </c>
       <c r="F16" t="n">
-        <v>41.96918916268916</v>
+        <v>40.36690994495248</v>
       </c>
       <c r="G16" t="n">
-        <v>12.83333333333333</v>
+        <v>12.23209862216916</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9.530319098926867</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.415384056806869</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7317066836512424</v>
       </c>
       <c r="K16" t="n">
-        <v>5.274725274725275</v>
+        <v>4.961736391570249</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.604972513711148</v>
       </c>
       <c r="M16" t="n">
-        <v>1.25</v>
+        <v>1.185323577009718</v>
       </c>
       <c r="N16" t="n">
-        <v>7.842650590150591</v>
+        <v>7.436762465434569</v>
       </c>
       <c r="O16" t="n">
-        <v>85.25</v>
+        <v>81.49657853124839</v>
       </c>
       <c r="P16" t="n">
-        <v>20.52777777777778</v>
+        <v>19.65824047612619</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.72222222222223</v>
+        <v>61.83833805512221</v>
       </c>
       <c r="R16" t="n">
-        <v>67.72113871313871</v>
+        <v>65.10413067387215</v>
       </c>
       <c r="S16" t="n">
-        <v>67.26329986217486</v>
+        <v>64.55552528016173</v>
       </c>
       <c r="T16" t="n">
-        <v>69.88888888888889</v>
+        <v>66.8220542440252</v>
       </c>
       <c r="U16" t="n">
-        <v>55.30555555555556</v>
+        <v>52.84068537541955</v>
       </c>
       <c r="V16" t="n">
-        <v>4.25</v>
+        <v>4.078290103952602</v>
       </c>
       <c r="W16" t="n">
-        <v>2.111111111111111</v>
+        <v>2.042953475971775</v>
       </c>
       <c r="X16" t="n">
-        <v>12.71406268268768</v>
+        <v>12.30589590583069</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.88888888888889</v>
+        <v>13.29489520946396</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.583333333333333</v>
+        <v>6.2908116780883</v>
       </c>
       <c r="AA16" t="n">
-        <v>28.50541218503719</v>
+        <v>27.24254366266403</v>
       </c>
       <c r="AB16" t="n">
-        <v>115.2222222222222</v>
+        <v>109.887855113836</v>
       </c>
       <c r="AC16" t="n">
-        <v>31.72222222222222</v>
+        <v>30.23798948832988</v>
       </c>
       <c r="AD16" t="n">
-        <v>83.5</v>
+        <v>79.64986562550615</v>
       </c>
       <c r="AE16" t="n">
-        <v>69.16901911051912</v>
+        <v>66.45079243917263</v>
       </c>
       <c r="AF16" t="n">
-        <v>69.53505913530914</v>
+        <v>66.7395038582837</v>
       </c>
       <c r="AG16" t="n">
-        <v>73.55555555555556</v>
+        <v>70.12744795049038</v>
       </c>
       <c r="AH16" t="n">
-        <v>56.36111111111111</v>
+        <v>53.7311430837851</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.5</v>
+        <v>6.195946543101891</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.416666666666667</v>
+        <v>3.261245510589537</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.13244859307359</v>
+        <v>16.41122960020231</v>
       </c>
       <c r="AL16" t="n">
-        <v>16.36111111111111</v>
+        <v>15.54606962889978</v>
       </c>
       <c r="AM16" t="n">
-        <v>7</v>
+        <v>6.66011110046747</v>
       </c>
       <c r="AN16" t="n">
-        <v>25.93525097125097</v>
+        <v>24.80964694110689</v>
       </c>
     </row>
     <row r="17">
@@ -2502,121 +2502,121 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.30555555555556</v>
+        <v>14.67429325044327</v>
       </c>
       <c r="C17" t="n">
-        <v>3.777777777777778</v>
+        <v>3.634477527125791</v>
       </c>
       <c r="D17" t="n">
-        <v>11.52777777777778</v>
+        <v>11.03981572331748</v>
       </c>
       <c r="E17" t="n">
-        <v>44.63842531542532</v>
+        <v>42.88151965463096</v>
       </c>
       <c r="F17" t="n">
-        <v>41.25513576701077</v>
+        <v>39.6540339530249</v>
       </c>
       <c r="G17" t="n">
-        <v>12.22222222222222</v>
+        <v>11.73267012750073</v>
       </c>
       <c r="H17" t="n">
-        <v>9.527777777777779</v>
+        <v>9.132338464237499</v>
       </c>
       <c r="I17" t="n">
-        <v>1.416666666666667</v>
+        <v>1.376982183487157</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7543443988783992</v>
       </c>
       <c r="K17" t="n">
-        <v>5.564828689828691</v>
+        <v>5.420325935556107</v>
       </c>
       <c r="L17" t="n">
-        <v>3.055555555555555</v>
+        <v>2.946124901102464</v>
       </c>
       <c r="M17" t="n">
-        <v>1.583333333333333</v>
+        <v>1.521332225878391</v>
       </c>
       <c r="N17" t="n">
-        <v>10.01436121748622</v>
+        <v>9.661371786834023</v>
       </c>
       <c r="O17" t="n">
-        <v>82.36111111111111</v>
+        <v>79.16302659632146</v>
       </c>
       <c r="P17" t="n">
-        <v>21.13888888888889</v>
+        <v>20.39980137870329</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.22222222222222</v>
+        <v>58.76322521761816</v>
       </c>
       <c r="R17" t="n">
-        <v>68.19745424482925</v>
+        <v>65.73616963169314</v>
       </c>
       <c r="S17" t="n">
-        <v>68.6422484043734</v>
+        <v>66.21126302242968</v>
       </c>
       <c r="T17" t="n">
-        <v>64.47222222222223</v>
+        <v>61.92062304225777</v>
       </c>
       <c r="U17" t="n">
-        <v>49.36111111111111</v>
+        <v>47.36068669535118</v>
       </c>
       <c r="V17" t="n">
-        <v>5.111111111111111</v>
+        <v>4.916266460913808</v>
       </c>
       <c r="W17" t="n">
-        <v>2.416666666666667</v>
+        <v>2.329225823030574</v>
       </c>
       <c r="X17" t="n">
-        <v>13.94582582695083</v>
+        <v>13.48428208238882</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.61111111111111</v>
+        <v>15.95875498810377</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.027777777777779</v>
+        <v>7.711178323391443</v>
       </c>
       <c r="AA17" t="n">
-        <v>28.59862419062419</v>
+        <v>27.62952233522175</v>
       </c>
       <c r="AB17" t="n">
-        <v>122.0555555555556</v>
+        <v>117.3376318987472</v>
       </c>
       <c r="AC17" t="n">
-        <v>36.91666666666666</v>
+        <v>35.4170047483347</v>
       </c>
       <c r="AD17" t="n">
-        <v>85.13888888888889</v>
+        <v>81.9206271504125</v>
       </c>
       <c r="AE17" t="n">
-        <v>67.35056884781885</v>
+        <v>65.19962198537381</v>
       </c>
       <c r="AF17" t="n">
-        <v>68.47627925777925</v>
+        <v>66.26963351264374</v>
       </c>
       <c r="AG17" t="n">
-        <v>72.61111111111111</v>
+        <v>69.76896006438577</v>
       </c>
       <c r="AH17" t="n">
-        <v>53.58333333333334</v>
+        <v>51.52997947316225</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.138888888888889</v>
+        <v>6.845423091767547</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.5</v>
+        <v>3.359001937678561</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.3799527972028</v>
+        <v>17.64933852807768</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.69444444444444</v>
+        <v>17.9556642134608</v>
       </c>
       <c r="AM17" t="n">
-        <v>8.25</v>
+        <v>7.950247589956167</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.98930993543494</v>
+        <v>27.05795912088067</v>
       </c>
     </row>
     <row r="18">
@@ -2626,121 +2626,121 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.51428571428571</v>
+        <v>13.87168136314738</v>
       </c>
       <c r="C18" t="n">
-        <v>3.914285714285714</v>
+        <v>3.739463915630331</v>
       </c>
       <c r="D18" t="n">
-        <v>10.6</v>
+        <v>10.13221744751705</v>
       </c>
       <c r="E18" t="n">
-        <v>41.96818963417535</v>
+        <v>40.43866046058734</v>
       </c>
       <c r="F18" t="n">
-        <v>38.8724872318158</v>
+        <v>37.44910468836319</v>
       </c>
       <c r="G18" t="n">
-        <v>11.94285714285714</v>
+        <v>11.41170923243052</v>
       </c>
       <c r="H18" t="n">
-        <v>8.971428571428572</v>
+        <v>8.568780964629765</v>
       </c>
       <c r="I18" t="n">
-        <v>1.657142857142857</v>
+        <v>1.579976645245478</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.7872674200081322</v>
       </c>
       <c r="K18" t="n">
-        <v>5.205508776937349</v>
+        <v>4.967797623805043</v>
       </c>
       <c r="L18" t="n">
-        <v>2.942857142857143</v>
+        <v>2.797048206748694</v>
       </c>
       <c r="M18" t="n">
-        <v>1.228571428571429</v>
+        <v>1.168430441389049</v>
       </c>
       <c r="N18" t="n">
-        <v>7.043528877471735</v>
+        <v>6.7336751272746</v>
       </c>
       <c r="O18" t="n">
-        <v>71.51428571428572</v>
+        <v>68.56018284690543</v>
       </c>
       <c r="P18" t="n">
-        <v>17.48571428571428</v>
+        <v>16.78804206887002</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.02857142857143</v>
+        <v>51.77214077803541</v>
       </c>
       <c r="R18" t="n">
-        <v>67.55178917907489</v>
+        <v>64.92407492201059</v>
       </c>
       <c r="S18" t="n">
-        <v>67.96145776604348</v>
+        <v>65.39255850312774</v>
       </c>
       <c r="T18" t="n">
-        <v>59.05714285714286</v>
+        <v>56.58705636444088</v>
       </c>
       <c r="U18" t="n">
-        <v>45.65714285714286</v>
+        <v>43.74543878197437</v>
       </c>
       <c r="V18" t="n">
-        <v>3.942857142857143</v>
+        <v>3.759714581620244</v>
       </c>
       <c r="W18" t="n">
-        <v>1.657142857142857</v>
+        <v>1.579572789200789</v>
       </c>
       <c r="X18" t="n">
-        <v>10.57567096395668</v>
+        <v>10.14282693545266</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.34285714285714</v>
+        <v>13.73005397094263</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>6.70370725956381</v>
       </c>
       <c r="AA18" t="n">
-        <v>29.20720144458716</v>
+        <v>28.20783595140335</v>
       </c>
       <c r="AB18" t="n">
-        <v>103.5428571428571</v>
+        <v>99.29746690811595</v>
       </c>
       <c r="AC18" t="n">
-        <v>30.45714285714286</v>
+        <v>29.21659503880936</v>
       </c>
       <c r="AD18" t="n">
-        <v>73.08571428571429</v>
+        <v>70.08087186930659</v>
       </c>
       <c r="AE18" t="n">
-        <v>67.03739770705485</v>
+        <v>64.48546547536027</v>
       </c>
       <c r="AF18" t="n">
-        <v>68.64859021613307</v>
+        <v>66.03039784574278</v>
       </c>
       <c r="AG18" t="n">
-        <v>68.25714285714285</v>
+        <v>65.42562252815215</v>
       </c>
       <c r="AH18" t="n">
-        <v>50.6</v>
+        <v>48.50664170826022</v>
       </c>
       <c r="AI18" t="n">
-        <v>5.914285714285715</v>
+        <v>5.64815265421075</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.028571428571428</v>
+        <v>2.883437717229581</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.22813469070612</v>
+        <v>15.52515889465533</v>
       </c>
       <c r="AL18" t="n">
-        <v>17.2</v>
+        <v>16.50062918493531</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.542857142857143</v>
+        <v>7.233479440646454</v>
       </c>
       <c r="AN18" t="n">
-        <v>28.82680672502101</v>
+        <v>27.73904479200298</v>
       </c>
     </row>
     <row r="19">
@@ -2750,121 +2750,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.32352941176471</v>
+        <v>12.59960084945975</v>
       </c>
       <c r="C19" t="n">
-        <v>3.5</v>
+        <v>3.319463388725613</v>
       </c>
       <c r="D19" t="n">
-        <v>9.823529411764707</v>
+        <v>9.280137460734132</v>
       </c>
       <c r="E19" t="n">
-        <v>42.50789687763217</v>
+        <v>40.22069751532179</v>
       </c>
       <c r="F19" t="n">
-        <v>38.21506263344499</v>
+        <v>36.12117739920154</v>
       </c>
       <c r="G19" t="n">
-        <v>10.55882352941176</v>
+        <v>9.982252237163362</v>
       </c>
       <c r="H19" t="n">
-        <v>7.911764705882353</v>
+        <v>7.466097074790996</v>
       </c>
       <c r="I19" t="n">
-        <v>1.735294117647059</v>
+        <v>1.630825637491954</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7145581229201305</v>
       </c>
       <c r="K19" t="n">
-        <v>5.228668390433096</v>
+        <v>4.887636285936378</v>
       </c>
       <c r="L19" t="n">
-        <v>3.088235294117647</v>
+        <v>2.924690556919917</v>
       </c>
       <c r="M19" t="n">
-        <v>1.558823529411765</v>
+        <v>1.467448093598964</v>
       </c>
       <c r="N19" t="n">
-        <v>10.07777345203816</v>
+        <v>9.508448347403073</v>
       </c>
       <c r="O19" t="n">
-        <v>74.35294117647059</v>
+        <v>70.36474346047352</v>
       </c>
       <c r="P19" t="n">
-        <v>21.11764705882353</v>
+        <v>20.00441627491179</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.23529411764706</v>
+        <v>50.36032718556174</v>
       </c>
       <c r="R19" t="n">
-        <v>66.51747199858966</v>
+        <v>63.00980639560355</v>
       </c>
       <c r="S19" t="n">
-        <v>64.94998173395231</v>
+        <v>61.53785168625087</v>
       </c>
       <c r="T19" t="n">
-        <v>58.64705882352941</v>
+        <v>55.49314934157447</v>
       </c>
       <c r="U19" t="n">
-        <v>42.61764705882353</v>
+        <v>40.31330386984196</v>
       </c>
       <c r="V19" t="n">
-        <v>4.823529411764706</v>
+        <v>4.541174715981398</v>
       </c>
       <c r="W19" t="n">
-        <v>2.382352941176471</v>
+        <v>2.225785436200061</v>
       </c>
       <c r="X19" t="n">
-        <v>14.15389424301189</v>
+        <v>13.21502387394781</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.79411764705882</v>
+        <v>15.8842538955385</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.205882352941176</v>
+        <v>7.743098601820691</v>
       </c>
       <c r="AA19" t="n">
-        <v>31.72148367808662</v>
+        <v>29.94498528971125</v>
       </c>
       <c r="AB19" t="n">
-        <v>114.1764705882353</v>
+        <v>108.0016365356318</v>
       </c>
       <c r="AC19" t="n">
-        <v>38</v>
+        <v>35.92875050943569</v>
       </c>
       <c r="AD19" t="n">
-        <v>76.17647058823529</v>
+        <v>72.07288602619607</v>
       </c>
       <c r="AE19" t="n">
-        <v>63.7754921451098</v>
+        <v>60.42032283361985</v>
       </c>
       <c r="AF19" t="n">
-        <v>64.37265538872893</v>
+        <v>60.95868848932685</v>
       </c>
       <c r="AG19" t="n">
-        <v>68.94117647058823</v>
+        <v>65.30097774527013</v>
       </c>
       <c r="AH19" t="n">
-        <v>48.70588235294117</v>
+        <v>46.1363627912244</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.647058823529412</v>
+        <v>7.201114269097665</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.764705882352941</v>
+        <v>3.530385403225213</v>
       </c>
       <c r="AK19" t="n">
-        <v>19.43816873322756</v>
+        <v>18.24931292927612</v>
       </c>
       <c r="AL19" t="n">
-        <v>19.32352941176471</v>
+        <v>18.29753078694606</v>
       </c>
       <c r="AM19" t="n">
-        <v>8.588235294117647</v>
+        <v>8.119843523516687</v>
       </c>
       <c r="AN19" t="n">
-        <v>31.41111056590469</v>
+        <v>29.70519951930848</v>
       </c>
     </row>
     <row r="20">
@@ -2874,121 +2874,121 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.13513513513514</v>
+        <v>14.49681562020026</v>
       </c>
       <c r="C20" t="n">
-        <v>3.675675675675676</v>
+        <v>3.531575940800614</v>
       </c>
       <c r="D20" t="n">
-        <v>11.45945945945946</v>
+        <v>10.96523967939965</v>
       </c>
       <c r="E20" t="n">
-        <v>41.30532491382491</v>
+        <v>39.75817072633362</v>
       </c>
       <c r="F20" t="n">
-        <v>38.10440668790668</v>
+        <v>36.50101596287576</v>
       </c>
       <c r="G20" t="n">
-        <v>12.35135135135135</v>
+        <v>11.79652747556604</v>
       </c>
       <c r="H20" t="n">
-        <v>9.54054054054054</v>
+        <v>9.106809331701635</v>
       </c>
       <c r="I20" t="n">
-        <v>1.648648648648649</v>
+        <v>1.583668200468898</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.791635939721721</v>
       </c>
       <c r="K20" t="n">
-        <v>5.691013761013761</v>
+        <v>5.379541951557614</v>
       </c>
       <c r="L20" t="n">
-        <v>3.324324324324324</v>
+        <v>3.16517434217535</v>
       </c>
       <c r="M20" t="n">
-        <v>1.621621621621622</v>
+        <v>1.519618213785302</v>
       </c>
       <c r="N20" t="n">
-        <v>10.07956007956008</v>
+        <v>9.447972116172147</v>
       </c>
       <c r="O20" t="n">
-        <v>80.37837837837837</v>
+        <v>77.08263156306516</v>
       </c>
       <c r="P20" t="n">
-        <v>20.75675675675676</v>
+        <v>19.89660857905861</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.62162162162162</v>
+        <v>57.18602298400656</v>
       </c>
       <c r="R20" t="n">
-        <v>68.37409881109882</v>
+        <v>66.20113764520659</v>
       </c>
       <c r="S20" t="n">
-        <v>67.52088181638182</v>
+        <v>65.33417636469544</v>
       </c>
       <c r="T20" t="n">
-        <v>65.37837837837837</v>
+        <v>62.66659603719806</v>
       </c>
       <c r="U20" t="n">
-        <v>49.7027027027027</v>
+        <v>47.69094525793832</v>
       </c>
       <c r="V20" t="n">
-        <v>4.486486486486487</v>
+        <v>4.2924359924432</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1.909356750011376</v>
       </c>
       <c r="X20" t="n">
-        <v>11.44178736578737</v>
+        <v>11.01956100250181</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.48648648648649</v>
+        <v>16.70828581142854</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.243243243243244</v>
+        <v>7.856919228190004</v>
       </c>
       <c r="AA20" t="n">
-        <v>29.40254472104472</v>
+        <v>28.28251925163655</v>
       </c>
       <c r="AB20" t="n">
-        <v>118.4054054054054</v>
+        <v>113.2564719180125</v>
       </c>
       <c r="AC20" t="n">
-        <v>35.78378378378378</v>
+        <v>34.26534282429611</v>
       </c>
       <c r="AD20" t="n">
-        <v>82.62162162162163</v>
+        <v>78.99112909371638</v>
       </c>
       <c r="AE20" t="n">
-        <v>64.51875286875287</v>
+        <v>62.33376718408424</v>
       </c>
       <c r="AF20" t="n">
-        <v>65.91663007713008</v>
+        <v>63.52993571102538</v>
       </c>
       <c r="AG20" t="n">
-        <v>76.75675675675676</v>
+        <v>73.4314559972867</v>
       </c>
       <c r="AH20" t="n">
-        <v>56</v>
+        <v>53.4791604854675</v>
       </c>
       <c r="AI20" t="n">
-        <v>6.405405405405405</v>
+        <v>6.095583497040339</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3.243243243243243</v>
+        <v>3.068648100247041</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.59855391455391</v>
+        <v>14.87773571360609</v>
       </c>
       <c r="AL20" t="n">
-        <v>20.81081081081081</v>
+        <v>19.99448611576302</v>
       </c>
       <c r="AM20" t="n">
-        <v>9.702702702702704</v>
+        <v>9.293396606780552</v>
       </c>
       <c r="AN20" t="n">
-        <v>32.10695688545689</v>
+        <v>30.91542540201051</v>
       </c>
     </row>
     <row r="21">
@@ -2998,121 +2998,121 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.44444444444444</v>
+        <v>16.17079315577051</v>
       </c>
       <c r="C21" t="n">
-        <v>3.638888888888889</v>
+        <v>3.576648449636548</v>
       </c>
       <c r="D21" t="n">
-        <v>12.80555555555556</v>
+        <v>12.59414470613396</v>
       </c>
       <c r="E21" t="n">
-        <v>48.45887168387168</v>
+        <v>48.73575132277645</v>
       </c>
       <c r="F21" t="n">
-        <v>44.86606297406297</v>
+        <v>45.08046445831232</v>
       </c>
       <c r="G21" t="n">
-        <v>13.52777777777778</v>
+        <v>13.31649663331179</v>
       </c>
       <c r="H21" t="n">
-        <v>10.63888888888889</v>
+        <v>10.47955445782757</v>
       </c>
       <c r="I21" t="n">
-        <v>1.805555555555556</v>
+        <v>1.760929301396694</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9192201989917174</v>
       </c>
       <c r="K21" t="n">
-        <v>6.548127798127798</v>
+        <v>6.409033917361985</v>
       </c>
       <c r="L21" t="n">
-        <v>2.944444444444445</v>
+        <v>2.922098156804878</v>
       </c>
       <c r="M21" t="n">
-        <v>1.361111111111111</v>
+        <v>1.37213350499055</v>
       </c>
       <c r="N21" t="n">
-        <v>8.445968198468199</v>
+        <v>8.705066782566947</v>
       </c>
       <c r="O21" t="n">
-        <v>82.77777777777777</v>
+        <v>81.61110113888429</v>
       </c>
       <c r="P21" t="n">
-        <v>20.02777777777778</v>
+        <v>19.70946859440713</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.75</v>
+        <v>61.90163254447717</v>
       </c>
       <c r="R21" t="n">
-        <v>68.62834322159323</v>
+        <v>68.86089194727502</v>
       </c>
       <c r="S21" t="n">
-        <v>68.20011034798534</v>
+        <v>68.39785479103131</v>
       </c>
       <c r="T21" t="n">
-        <v>66.83333333333333</v>
+        <v>65.80382372288585</v>
       </c>
       <c r="U21" t="n">
-        <v>52.16666666666666</v>
+        <v>51.36200691435849</v>
       </c>
       <c r="V21" t="n">
-        <v>6</v>
+        <v>5.872336900334623</v>
       </c>
       <c r="W21" t="n">
-        <v>2.722222222222222</v>
+        <v>2.685348980223544</v>
       </c>
       <c r="X21" t="n">
-        <v>14.62346433196433</v>
+        <v>14.8826042863519</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.41666666666667</v>
+        <v>16.16642565857562</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.027777777777779</v>
+        <v>7.866273256220625</v>
       </c>
       <c r="AA21" t="n">
-        <v>28.73568462093462</v>
+        <v>28.58423646786831</v>
       </c>
       <c r="AB21" t="n">
-        <v>118.5555555555556</v>
+        <v>116.8418256420334</v>
       </c>
       <c r="AC21" t="n">
-        <v>33.33333333333334</v>
+        <v>32.98065952056196</v>
       </c>
       <c r="AD21" t="n">
-        <v>85.22222222222223</v>
+        <v>83.86116612147144</v>
       </c>
       <c r="AE21" t="n">
-        <v>68.93938534613534</v>
+        <v>69.30838366547434</v>
       </c>
       <c r="AF21" t="n">
-        <v>68.21262764550265</v>
+        <v>68.82894691773539</v>
       </c>
       <c r="AG21" t="n">
-        <v>74.66666666666667</v>
+        <v>73.26353398620289</v>
       </c>
       <c r="AH21" t="n">
-        <v>55.97222222222222</v>
+        <v>54.93070390637272</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>8.901036117796673</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4.333333333333333</v>
+        <v>4.279175294235978</v>
       </c>
       <c r="AK21" t="n">
-        <v>19.9610596024346</v>
+        <v>19.91919587516946</v>
       </c>
       <c r="AL21" t="n">
-        <v>18.72222222222222</v>
+        <v>18.40195142160213</v>
       </c>
       <c r="AM21" t="n">
-        <v>8.75</v>
+        <v>8.624637888349769</v>
       </c>
       <c r="AN21" t="n">
-        <v>31.56645583583084</v>
+        <v>31.57452484418775</v>
       </c>
     </row>
   </sheetData>
